--- a/db/Sample question_38 courses.xlsx
+++ b/db/Sample question_38 courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\JKSDM-AI-API\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BFEC76-15D4-4E49-9193-3D776AFE2A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC4276-17B4-43C0-BFF2-491E8CF74253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IT- ITeS" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1310">
   <si>
     <t>Question Statement</t>
   </si>
@@ -3287,10 +3287,6 @@
     <t>It will enhance nutrient absorption.</t>
   </si>
   <si>
-    <t>It will cause the accumulation of 
-waste products.</t>
-  </si>
-  <si>
     <t>This question assesses the impact of cell excretion 
 dysfunction, highlighting potential harmful effects
  and impaired cellular function if waste accumulation
@@ -3331,20 +3327,12 @@
 muscle contractions</t>
   </si>
   <si>
-    <t>Evaluating the electrical 
-activity of cardiac muscle</t>
-  </si>
-  <si>
     <t>Examining smooth muscle response
  to stress</t>
   </si>
   <si>
     <t>Analyzing skeletal muscle contraction
  patterns</t>
-  </si>
-  <si>
-    <t>Evaluating the electrical activity 
-of cardiac muscle</t>
   </si>
   <si>
     <t>ECG (electrocardiogram) is used to assess cardiac 
@@ -3359,26 +3347,6 @@
  and legs. How does this injury impact the communication
  between the brain and these body parts, and what specific
  area of the spinal cord is affected?</t>
-  </si>
-  <si>
-    <t>The cervical region, affecting arm 
-and leg movement</t>
-  </si>
-  <si>
-    <t>The lumbar region, 
-affecting leg movement</t>
-  </si>
-  <si>
-    <t>The thoracic region, affecting
- trunk stability</t>
-  </si>
-  <si>
-    <t>The sacral region, affecting lower body 
-and bowel control</t>
-  </si>
-  <si>
-    <t>The cervical region, affecting
- arm and leg movement</t>
   </si>
   <si>
     <t>Cervical spinal cord injuries disrupt brain-to-body 
@@ -5120,6 +5088,24 @@
   </si>
   <si>
     <t xml:space="preserve">A higher discount rate leads to a lower present value because the present value (PV) of future cash flows is calculated by discounting them at a specified rate. </t>
+  </si>
+  <si>
+    <t>Evaluating the electrical activity of cardiac muscle</t>
+  </si>
+  <si>
+    <t>The cervical region, affecting arm and leg movement</t>
+  </si>
+  <si>
+    <t>The lumbar region, affecting leg movement</t>
+  </si>
+  <si>
+    <t>The thoracic region, affecting trunk stability</t>
+  </si>
+  <si>
+    <t>The sacral region, affecting lower body and bowel control</t>
+  </si>
+  <si>
+    <t>It will cause the accumulation of waste products.</t>
   </si>
 </sst>
 </file>
@@ -5237,7 +5223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5348,6 +5334,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19894,7 +19881,7 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -22205,7 +22192,9 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -22257,7 +22246,7 @@
       <c r="C2" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="38" t="s">
         <v>807</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -22283,17 +22272,17 @@
       <c r="C3" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="38" t="s">
         <v>813</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="38" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>814</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>814</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>815</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>21</v>
@@ -22301,77 +22290,77 @@
     </row>
     <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>817</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>820</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>821</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>822</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>823</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="F5" s="28" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>825</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>828</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="16" t="s">
-        <v>829</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>830</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>831</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>833</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>834</v>
+        <v>826</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>1305</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>28</v>
@@ -22433,25 +22422,25 @@
     </row>
     <row r="2" spans="1:10" ht="14.4">
       <c r="A2" s="16" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>14</v>
@@ -22459,25 +22448,25 @@
     </row>
     <row r="3" spans="1:10" ht="14.4">
       <c r="A3" s="16" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>21</v>
@@ -22485,25 +22474,25 @@
     </row>
     <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="16" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>21</v>
@@ -22511,25 +22500,25 @@
     </row>
     <row r="5" spans="1:10" ht="14.4">
       <c r="A5" s="16" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>28</v>
@@ -22537,25 +22526,25 @@
     </row>
     <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="16" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>28</v>
@@ -22613,25 +22602,25 @@
     </row>
     <row r="2" spans="1:8" ht="126" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
@@ -22639,25 +22628,25 @@
     </row>
     <row r="3" spans="1:8" ht="132.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>28</v>
@@ -22665,25 +22654,25 @@
     </row>
     <row r="4" spans="1:8" ht="117" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>14</v>
@@ -22691,25 +22680,25 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
@@ -22717,25 +22706,25 @@
     </row>
     <row r="6" spans="1:8" ht="67.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>28</v>
@@ -32734,25 +32723,25 @@
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>14</v>
@@ -32760,25 +32749,25 @@
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>21</v>
@@ -32786,25 +32775,25 @@
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>28</v>
@@ -32812,25 +32801,25 @@
     </row>
     <row r="5" spans="1:8" ht="46.5" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>21</v>
@@ -32838,25 +32827,25 @@
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>21</v>
@@ -32864,25 +32853,25 @@
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>21</v>
@@ -32890,25 +32879,25 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>936</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>942</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>937</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>943</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>939</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>944</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>21</v>
@@ -32916,25 +32905,25 @@
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>28</v>
@@ -32942,25 +32931,25 @@
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>21</v>
@@ -32968,25 +32957,25 @@
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="F11" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>21</v>
@@ -34034,25 +34023,25 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>14</v>
@@ -34060,25 +34049,25 @@
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>21</v>
@@ -34086,25 +34075,25 @@
     </row>
     <row r="4" spans="1:8" ht="49.5" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>28</v>
@@ -34112,25 +34101,25 @@
     </row>
     <row r="5" spans="1:8" ht="61.5" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>21</v>
@@ -34138,25 +34127,25 @@
     </row>
     <row r="6" spans="1:8" ht="105" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>21</v>
@@ -35499,25 +35488,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -35543,25 +35532,25 @@
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>28</v>
@@ -35587,25 +35576,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>21</v>
@@ -35631,25 +35620,25 @@
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -35675,25 +35664,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="10" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -35770,25 +35759,25 @@
     </row>
     <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -35796,25 +35785,25 @@
     </row>
     <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="10" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
@@ -35822,25 +35811,25 @@
     </row>
     <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>28</v>
@@ -35848,23 +35837,23 @@
     </row>
     <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="10" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -35872,25 +35861,25 @@
     </row>
     <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="10" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -35898,25 +35887,25 @@
     </row>
     <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="16" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>21</v>
@@ -35924,25 +35913,25 @@
     </row>
     <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="16" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>21</v>
@@ -35950,25 +35939,25 @@
     </row>
     <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="16" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
@@ -35976,25 +35965,25 @@
     </row>
     <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="16" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
@@ -36002,25 +35991,25 @@
     </row>
     <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="16" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>21</v>
@@ -36079,25 +36068,25 @@
     </row>
     <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="12" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
@@ -36105,25 +36094,25 @@
     </row>
     <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="12" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>21</v>
@@ -36131,25 +36120,25 @@
     </row>
     <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="12" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
@@ -36157,25 +36146,25 @@
     </row>
     <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="12" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>14</v>
@@ -36183,25 +36172,25 @@
     </row>
     <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="12" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>21</v>
@@ -36257,25 +36246,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>28</v>
@@ -36301,25 +36290,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="10" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
@@ -36345,25 +36334,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -36389,22 +36378,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="10" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
@@ -36431,25 +36420,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="16" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>21</v>
@@ -36508,25 +36497,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -36552,25 +36541,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="10" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>28</v>
@@ -36596,25 +36585,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -36640,25 +36629,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="10" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -36684,25 +36673,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="10" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>21</v>
@@ -36777,25 +36766,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -36821,25 +36810,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="10" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>14</v>
@@ -36865,25 +36854,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>21</v>
@@ -36909,25 +36898,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="10" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -36953,25 +36942,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="10" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>28</v>
@@ -37049,25 +37038,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>14</v>
@@ -37093,25 +37082,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="10" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>244</v>
@@ -37137,25 +37126,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>28</v>
@@ -37181,25 +37170,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="10" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>244</v>
@@ -37225,25 +37214,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="10" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>28</v>
@@ -37320,25 +37309,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="10" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -37364,25 +37353,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="10" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
@@ -37408,25 +37397,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>28</v>
@@ -37452,25 +37441,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="10" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>21</v>
@@ -37496,28 +37485,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="10" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -37588,25 +37577,25 @@
     </row>
     <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="16" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
@@ -37614,25 +37603,25 @@
     </row>
     <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="16" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>21</v>
@@ -37640,25 +37629,25 @@
     </row>
     <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="16" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>14</v>
@@ -37666,25 +37655,25 @@
     </row>
     <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="16" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>28</v>
@@ -37692,25 +37681,25 @@
     </row>
     <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="16" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>28</v>

--- a/db/Sample question_38 courses.xlsx
+++ b/db/Sample question_38 courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\JKSDM-AI-API\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC4276-17B4-43C0-BFF2-491E8CF74253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55D63E-C366-43E5-B4E7-76675AF044E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IT- ITeS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="Gems &amp; Jewellery" sheetId="20" r:id="rId20"/>
     <sheet name="Handicraft &amp; Carpets" sheetId="21" r:id="rId21"/>
     <sheet name="Green Jobs" sheetId="22" r:id="rId22"/>
-    <sheet name="Automative" sheetId="23" r:id="rId23"/>
+    <sheet name="Automotive" sheetId="23" r:id="rId23"/>
     <sheet name="Electronic &amp; Hardware " sheetId="24" r:id="rId24"/>
     <sheet name="Health care " sheetId="25" r:id="rId25"/>
     <sheet name="Food Processing" sheetId="26" r:id="rId26"/>
@@ -3974,10 +3974,6 @@
     <t>Long, continuous strands, such as those found in silk or synthetic fibres, are filament fibres. On the other hand, staple fibres are often short and derived from natural materials like cotton, linen, or wool.</t>
   </si>
   <si>
-    <t xml:space="preserve">How does the degree of twist in yarn primarily affect the fabric?
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The twist in the yarn only affects the fabric's color and design.
 </t>
   </si>
@@ -3996,10 +3992,6 @@
     <t>The degree of twist in yarns plays an important role in determining the fabric's characteristics. Tightly twisted yarns produce smooth and strong fabrics, such as gabardine. On the other hand, gently twisted yarns are suitable for napped fabrics, which are softer but less durable. Thus, the twist level directly impacts both the appearance and durability of the final fabric.</t>
   </si>
   <si>
-    <t xml:space="preserve">Identify the best statement that explains the relationship between needle size number and its characteristics.
-</t>
-  </si>
-  <si>
     <t>The higher the needle size number, the larger the eye of the needle will be.</t>
   </si>
   <si>
@@ -4021,10 +4013,6 @@
     <t>In embroidery, the needle size is indicated by a number, where a higher number corresponds to a finer (thinner) and sharper needle. This is important because finer needles are used for delicate materials and intricate embroidery work. The choice of needle size depends on the material and thread being used, with higher-numbered needles being more suitable for fine fabrics like chiffon or silk.</t>
   </si>
   <si>
-    <t xml:space="preserve">When selecting a needle for embroidery on silk material with silk thread, which of the following would be the most appropriate choice?
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">A low-numbered needle with a thick shaft and a large eye.
 </t>
   </si>
@@ -5106,6 +5094,15 @@
   </si>
   <si>
     <t>It will cause the accumulation of waste products.</t>
+  </si>
+  <si>
+    <t>When selecting a needle for embroidery on silk material with silk thread, which of the following would be the most appropriate choice?</t>
+  </si>
+  <si>
+    <t>How does the degree of twist in yarn primarily affect the fabric?</t>
+  </si>
+  <si>
+    <t>Identify the best statement that explains the relationship between needle size number and its characteristics.</t>
   </si>
 </sst>
 </file>
@@ -5554,17 +5551,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.53515625" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
+    <col min="6" max="6" width="15.84375" customWidth="1"/>
+    <col min="7" max="7" width="33.69140625" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" customWidth="1"/>
+    <col min="9" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -17650,16 +17647,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="54.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="54.4609375" customWidth="1"/>
+    <col min="2" max="2" width="26.53515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" customWidth="1"/>
+    <col min="5" max="5" width="20.07421875" customWidth="1"/>
+    <col min="6" max="6" width="31.53515625" customWidth="1"/>
+    <col min="7" max="7" width="39.84375" customWidth="1"/>
+    <col min="8" max="8" width="28.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -17690,7 +17687,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>297</v>
       </c>
@@ -17716,7 +17713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>304</v>
       </c>
@@ -17742,7 +17739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>311</v>
       </c>
@@ -17768,7 +17765,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>318</v>
       </c>
@@ -17794,7 +17791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>324</v>
       </c>
@@ -17834,12 +17831,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="85.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="85.4609375" customWidth="1"/>
+    <col min="6" max="6" width="27.4609375" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -17870,7 +17867,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="16.8">
+    <row r="2" spans="1:10" ht="17.149999999999999">
       <c r="A2" s="10" t="s">
         <v>330</v>
       </c>
@@ -17896,7 +17893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.8">
+    <row r="3" spans="1:10" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>337</v>
       </c>
@@ -17922,7 +17919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.8">
+    <row r="4" spans="1:10" ht="17.149999999999999">
       <c r="A4" s="10" t="s">
         <v>343</v>
       </c>
@@ -17948,7 +17945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="10" t="s">
         <v>349</v>
       </c>
@@ -17974,7 +17971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.8">
+    <row r="6" spans="1:10" ht="17.149999999999999">
       <c r="A6" s="10" t="s">
         <v>355</v>
       </c>
@@ -18014,12 +18011,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.69140625" customWidth="1"/>
+    <col min="6" max="6" width="30.84375" customWidth="1"/>
+    <col min="7" max="7" width="26.4609375" customWidth="1"/>
+    <col min="8" max="8" width="16.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -18066,7 +18063,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>362</v>
       </c>
@@ -18110,7 +18107,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8">
+    <row r="3" spans="1:26" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>368</v>
       </c>
@@ -18154,7 +18151,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>374</v>
       </c>
@@ -18198,7 +18195,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="16.8">
+    <row r="5" spans="1:26" ht="17.149999999999999">
       <c r="A5" s="10" t="s">
         <v>379</v>
       </c>
@@ -18242,7 +18239,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="16.8">
+    <row r="6" spans="1:26" ht="17.149999999999999">
       <c r="A6" s="10" t="s">
         <v>385</v>
       </c>
@@ -18300,9 +18297,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="67.53515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
@@ -18351,7 +18348,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>391</v>
       </c>
@@ -18395,7 +18392,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8">
+    <row r="3" spans="1:26" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>398</v>
       </c>
@@ -18439,7 +18436,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>405</v>
       </c>
@@ -18483,7 +18480,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="16.8">
+    <row r="5" spans="1:26" ht="17.149999999999999">
       <c r="A5" s="10" t="s">
         <v>412</v>
       </c>
@@ -18527,7 +18524,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="16.8">
+    <row r="6" spans="1:26" ht="17.149999999999999">
       <c r="A6" s="10" t="s">
         <v>419</v>
       </c>
@@ -18585,13 +18582,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.84375" customWidth="1"/>
+    <col min="3" max="3" width="27.53515625" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" customWidth="1"/>
+    <col min="6" max="6" width="26.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -18638,7 +18635,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>426</v>
       </c>
@@ -18682,7 +18679,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8">
+    <row r="3" spans="1:26" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>433</v>
       </c>
@@ -18726,7 +18723,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>439</v>
       </c>
@@ -18770,7 +18767,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
         <v>445</v>
       </c>
@@ -18814,7 +18811,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="16.8">
+    <row r="6" spans="1:26" ht="17.149999999999999">
       <c r="A6" s="10" t="s">
         <v>451</v>
       </c>
@@ -18872,10 +18869,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="44.07421875" customWidth="1"/>
+    <col min="2" max="2" width="26.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -18922,7 +18919,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>458</v>
       </c>
@@ -18966,7 +18963,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8">
+    <row r="3" spans="1:26" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>464</v>
       </c>
@@ -19010,7 +19007,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>470</v>
       </c>
@@ -19054,7 +19051,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="16.8">
+    <row r="5" spans="1:26" ht="17.149999999999999">
       <c r="A5" s="10" t="s">
         <v>476</v>
       </c>
@@ -19098,7 +19095,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="16.8">
+    <row r="6" spans="1:26" ht="17.149999999999999">
       <c r="A6" s="10" t="s">
         <v>482</v>
       </c>
@@ -19156,14 +19153,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="50.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.53515625" customWidth="1"/>
+    <col min="5" max="5" width="23.3046875" customWidth="1"/>
+    <col min="7" max="7" width="50.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -19194,7 +19191,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>488</v>
       </c>
@@ -19220,7 +19217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>495</v>
       </c>
@@ -19246,7 +19243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>502</v>
       </c>
@@ -19298,7 +19295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>513</v>
       </c>
@@ -19338,12 +19335,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="77.53515625" customWidth="1"/>
+    <col min="2" max="2" width="20.84375" customWidth="1"/>
+    <col min="7" max="7" width="29.3046875" customWidth="1"/>
+    <col min="8" max="8" width="20.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -19374,7 +19371,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>520</v>
       </c>
@@ -19400,7 +19397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>527</v>
       </c>
@@ -19426,7 +19423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>534</v>
       </c>
@@ -19452,7 +19449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>541</v>
       </c>
@@ -19478,7 +19475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>548</v>
       </c>
@@ -19518,13 +19515,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="93.88671875" customWidth="1"/>
+    <col min="1" max="1" width="93.84375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.07421875" customWidth="1"/>
+    <col min="6" max="6" width="23.53515625" customWidth="1"/>
+    <col min="7" max="7" width="30.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -19555,7 +19552,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>554</v>
       </c>
@@ -19581,7 +19578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>559</v>
       </c>
@@ -19607,7 +19604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>566</v>
       </c>
@@ -19633,7 +19630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>573</v>
       </c>
@@ -19659,7 +19656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>580</v>
       </c>
@@ -19699,16 +19696,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.4609375" customWidth="1"/>
+    <col min="2" max="2" width="40.69140625" customWidth="1"/>
+    <col min="3" max="3" width="33.07421875" customWidth="1"/>
+    <col min="4" max="4" width="28.4609375" customWidth="1"/>
+    <col min="5" max="5" width="34.53515625" customWidth="1"/>
+    <col min="6" max="6" width="32.3046875" customWidth="1"/>
+    <col min="7" max="7" width="43.3046875" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -19739,7 +19736,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>585</v>
       </c>
@@ -19765,7 +19762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>591</v>
       </c>
@@ -19791,7 +19788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>597</v>
       </c>
@@ -19817,7 +19814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>603</v>
       </c>
@@ -19843,7 +19840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>609</v>
       </c>
@@ -19881,18 +19878,20 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A4:F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.07421875" customWidth="1"/>
+    <col min="2" max="2" width="30.84375" customWidth="1"/>
+    <col min="3" max="3" width="33.4609375" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.84375" customWidth="1"/>
+    <col min="6" max="6" width="30.84375" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" customWidth="1"/>
+    <col min="8" max="8" width="23.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -19923,7 +19922,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -19967,7 +19966,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -20011,7 +20010,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -20055,7 +20054,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -20099,7 +20098,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
         <v>54</v>
       </c>
@@ -20157,16 +20156,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="45.4609375" customWidth="1"/>
+    <col min="2" max="2" width="29.3046875" customWidth="1"/>
+    <col min="3" max="3" width="19.53515625" customWidth="1"/>
+    <col min="4" max="4" width="27.4609375" customWidth="1"/>
+    <col min="5" max="5" width="28.84375" customWidth="1"/>
+    <col min="6" max="6" width="26.3046875" customWidth="1"/>
+    <col min="7" max="7" width="59.69140625" customWidth="1"/>
+    <col min="8" max="8" width="23.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -20197,7 +20196,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>616</v>
       </c>
@@ -20223,7 +20222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>622</v>
       </c>
@@ -20249,7 +20248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>628</v>
       </c>
@@ -20275,7 +20274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>635</v>
       </c>
@@ -20301,7 +20300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>641</v>
       </c>
@@ -20341,16 +20340,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.4609375" customWidth="1"/>
+    <col min="3" max="3" width="27.69140625" customWidth="1"/>
+    <col min="4" max="4" width="18.69140625" customWidth="1"/>
+    <col min="5" max="5" width="17.4609375" customWidth="1"/>
+    <col min="6" max="6" width="30.4609375" customWidth="1"/>
+    <col min="7" max="7" width="36.07421875" customWidth="1"/>
+    <col min="8" max="8" width="31.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -20379,7 +20378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>648</v>
       </c>
@@ -20405,7 +20404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>654</v>
       </c>
@@ -20431,7 +20430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>661</v>
       </c>
@@ -20457,7 +20456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>667</v>
       </c>
@@ -20483,7 +20482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>673</v>
       </c>
@@ -20523,16 +20522,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.84375" customWidth="1"/>
+    <col min="2" max="2" width="23.53515625" customWidth="1"/>
+    <col min="3" max="3" width="28.69140625" customWidth="1"/>
+    <col min="4" max="4" width="24.53515625" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="6" max="6" width="24.07421875" customWidth="1"/>
+    <col min="7" max="7" width="50.3046875" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -20561,7 +20560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>679</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>685</v>
       </c>
@@ -20613,7 +20612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>691</v>
       </c>
@@ -20639,7 +20638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>697</v>
       </c>
@@ -20665,7 +20664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>703</v>
       </c>
@@ -20702,17 +20701,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="102.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" customWidth="1"/>
-    <col min="3" max="3" width="62.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
-    <col min="6" max="6" width="73.88671875" customWidth="1"/>
-    <col min="7" max="7" width="153.44140625" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="102.69140625" customWidth="1"/>
+    <col min="2" max="2" width="73.4609375" customWidth="1"/>
+    <col min="3" max="3" width="62.07421875" customWidth="1"/>
+    <col min="4" max="4" width="29.84375" customWidth="1"/>
+    <col min="5" max="5" width="31.53515625" customWidth="1"/>
+    <col min="6" max="6" width="73.84375" customWidth="1"/>
+    <col min="7" max="7" width="153.4609375" customWidth="1"/>
+    <col min="8" max="8" width="37.84375" customWidth="1"/>
+    <col min="9" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -21880,16 +21879,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="68.3046875" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" customWidth="1"/>
+    <col min="3" max="3" width="36.69140625" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" customWidth="1"/>
-    <col min="7" max="7" width="69.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.4609375" customWidth="1"/>
+    <col min="6" max="6" width="37.4609375" customWidth="1"/>
+    <col min="7" max="7" width="69.84375" customWidth="1"/>
+    <col min="8" max="8" width="27.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -21920,7 +21919,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>739</v>
       </c>
@@ -21946,7 +21945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>745</v>
       </c>
@@ -21972,7 +21971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>752</v>
       </c>
@@ -21998,7 +21997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>759</v>
       </c>
@@ -22024,7 +22023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>765</v>
       </c>
@@ -22050,7 +22049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10" ht="14.6">
       <c r="A7" s="16" t="s">
         <v>772</v>
       </c>
@@ -22076,7 +22075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4">
+    <row r="8" spans="1:10" ht="14.6">
       <c r="A8" s="16" t="s">
         <v>778</v>
       </c>
@@ -22102,7 +22101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
+    <row r="9" spans="1:10" ht="14.6">
       <c r="A9" s="16" t="s">
         <v>783</v>
       </c>
@@ -22128,7 +22127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
+    <row r="10" spans="1:10" ht="14.6">
       <c r="A10" s="16" t="s">
         <v>790</v>
       </c>
@@ -22192,19 +22191,19 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="47.109375" customWidth="1"/>
+    <col min="1" max="1" width="52.3046875" customWidth="1"/>
+    <col min="2" max="2" width="31.3046875" customWidth="1"/>
+    <col min="3" max="3" width="23.84375" customWidth="1"/>
+    <col min="4" max="4" width="33.84375" customWidth="1"/>
+    <col min="5" max="5" width="37.07421875" customWidth="1"/>
+    <col min="6" max="6" width="29.07421875" customWidth="1"/>
+    <col min="7" max="7" width="47.07421875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22236,7 +22235,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>804</v>
       </c>
@@ -22262,7 +22261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>810</v>
       </c>
@@ -22276,10 +22275,10 @@
         <v>813</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>814</v>
@@ -22288,7 +22287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>815</v>
       </c>
@@ -22314,7 +22313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:10" ht="29.15">
       <c r="A5" s="16" t="s">
         <v>821</v>
       </c>
@@ -22322,7 +22321,7 @@
         <v>822</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>823</v>
@@ -22331,7 +22330,7 @@
         <v>824</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>825</v>
@@ -22340,24 +22339,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="29.15">
       <c r="A6" s="16" t="s">
         <v>826</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>1305</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>1308</v>
-      </c>
       <c r="F6" s="38" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>827</v>
@@ -22378,18 +22377,18 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.69140625" customWidth="1"/>
+    <col min="2" max="2" width="32.84375" customWidth="1"/>
+    <col min="3" max="3" width="30.3046875" customWidth="1"/>
+    <col min="4" max="4" width="34.84375" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
+    <col min="6" max="6" width="34.84375" customWidth="1"/>
+    <col min="7" max="7" width="50.69140625" customWidth="1"/>
+    <col min="8" max="8" width="22.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -22420,7 +22419,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>828</v>
       </c>
@@ -22446,7 +22445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>834</v>
       </c>
@@ -22472,7 +22471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>840</v>
       </c>
@@ -22498,7 +22497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>847</v>
       </c>
@@ -22524,7 +22523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>854</v>
       </c>
@@ -22559,19 +22558,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
-    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.4609375" customWidth="1"/>
+    <col min="2" max="2" width="67.07421875" customWidth="1"/>
+    <col min="3" max="3" width="41.4609375" customWidth="1"/>
+    <col min="4" max="4" width="30.53515625" customWidth="1"/>
+    <col min="5" max="5" width="20.4609375" customWidth="1"/>
+    <col min="6" max="6" width="31.84375" customWidth="1"/>
+    <col min="7" max="7" width="67.69140625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="9" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -32682,17 +32681,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="77.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="77.84375" customWidth="1"/>
+    <col min="2" max="2" width="42.84375" customWidth="1"/>
+    <col min="3" max="3" width="26.84375" customWidth="1"/>
+    <col min="4" max="4" width="37.4609375" customWidth="1"/>
+    <col min="5" max="5" width="43.07421875" customWidth="1"/>
+    <col min="6" max="6" width="61.53515625" customWidth="1"/>
+    <col min="7" max="7" width="55.53515625" customWidth="1"/>
+    <col min="8" max="8" width="47.07421875" customWidth="1"/>
+    <col min="9" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -33982,17 +33981,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="67.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.88671875" customWidth="1"/>
-    <col min="8" max="8" width="44.88671875" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="67.4609375" customWidth="1"/>
+    <col min="2" max="2" width="30.4609375" customWidth="1"/>
+    <col min="3" max="3" width="22.84375" customWidth="1"/>
+    <col min="4" max="4" width="37.07421875" customWidth="1"/>
+    <col min="5" max="5" width="43.07421875" customWidth="1"/>
+    <col min="6" max="6" width="33.69140625" customWidth="1"/>
+    <col min="7" max="7" width="53.84375" customWidth="1"/>
+    <col min="8" max="8" width="44.84375" customWidth="1"/>
+    <col min="9" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -35162,12 +35161,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="74.109375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="74.07421875" customWidth="1"/>
+    <col min="6" max="6" width="32.07421875" customWidth="1"/>
+    <col min="7" max="7" width="35.53515625" customWidth="1"/>
+    <col min="8" max="8" width="26.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -35198,7 +35197,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -35242,7 +35241,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
@@ -35286,7 +35285,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>74</v>
       </c>
@@ -35330,7 +35329,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
@@ -35374,7 +35373,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -35430,16 +35429,18 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="110.88671875" customWidth="1"/>
+    <col min="1" max="1" width="110.84375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
-    <col min="7" max="7" width="45.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.53515625" customWidth="1"/>
+    <col min="6" max="6" width="49.3046875" customWidth="1"/>
+    <col min="7" max="7" width="45.84375" customWidth="1"/>
+    <col min="8" max="8" width="29.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -35486,8 +35487,8 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:26" ht="14.6">
+      <c r="A2" s="21" t="s">
         <v>990</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -35531,26 +35532,26 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="27" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>998</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1000</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1001</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1002</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>28</v>
@@ -35574,27 +35575,27 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:26" ht="14.6">
+      <c r="A4" s="21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>1003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>1004</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1005</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>1007</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1009</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>21</v>
@@ -35619,26 +35620,26 @@
       <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1010</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>1013</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>1016</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -35662,27 +35663,27 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:26" ht="14.6">
+      <c r="A6" s="21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>1019</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1022</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -35718,17 +35719,19 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="83.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
-    <col min="7" max="7" width="40.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="83.69140625" customWidth="1"/>
+    <col min="2" max="2" width="27.07421875" customWidth="1"/>
+    <col min="3" max="3" width="30.84375" customWidth="1"/>
+    <col min="4" max="4" width="32.4609375" customWidth="1"/>
+    <col min="6" max="6" width="26.07421875" customWidth="1"/>
+    <col min="7" max="7" width="40.53515625" customWidth="1"/>
+    <col min="8" max="8" width="25.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -35757,259 +35760,259 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="29.15">
       <c r="A2" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>1026</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1029</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="14.6">
       <c r="A3" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1032</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1035</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="14.6">
       <c r="A4" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>1038</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1041</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="14.6">
       <c r="A5" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1043</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1046</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="14.6">
       <c r="A6" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>1050</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>1051</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1054</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4">
+    <row r="7" spans="1:8" ht="14.6">
       <c r="A7" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>1056</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>1057</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>1058</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>1061</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4">
+    <row r="8" spans="1:8" ht="14.6">
       <c r="A8" s="16" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>1062</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>1063</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>1064</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>1065</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>1068</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4">
+    <row r="9" spans="1:8" ht="14.6">
       <c r="A9" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>1069</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>1070</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>1071</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>1072</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>1075</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4">
+    <row r="10" spans="1:8" ht="14.6">
       <c r="A10" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>1076</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>1079</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4">
+    <row r="11" spans="1:8" ht="14.6">
       <c r="A11" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>1080</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>1081</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>1082</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>1083</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>1086</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>21</v>
@@ -36029,15 +36032,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.69140625" customWidth="1"/>
+    <col min="2" max="2" width="26.3046875" customWidth="1"/>
+    <col min="3" max="3" width="23.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.07421875" customWidth="1"/>
+    <col min="5" max="5" width="24.53515625" customWidth="1"/>
+    <col min="7" max="7" width="44.4609375" customWidth="1"/>
+    <col min="8" max="8" width="29.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -36066,131 +36069,131 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="14.6">
       <c r="A2" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>1088</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>1089</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>1092</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="14.6">
       <c r="A3" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>1094</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>1095</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>1098</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="14.6">
       <c r="A4" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>1100</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>1101</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>1102</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>1105</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="14.6">
       <c r="A5" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>1107</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>1108</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>1111</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="14.6">
       <c r="A6" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>1113</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="F6" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>1114</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>1117</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>21</v>
@@ -36210,11 +36213,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.07421875" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36244,27 +36247,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1118</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>1120</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1123</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>28</v>
@@ -36288,27 +36291,27 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>1124</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1126</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
@@ -36332,27 +36335,27 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>1132</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1135</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -36376,24 +36379,24 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1137</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1140</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
@@ -36418,27 +36421,27 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>1141</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>1142</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="F6" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>1143</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>1146</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>21</v>
@@ -36458,15 +36461,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="74.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="74.53515625" customWidth="1"/>
+    <col min="2" max="2" width="31.4609375" customWidth="1"/>
+    <col min="3" max="3" width="30.4609375" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="104.109375" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="104.07421875" customWidth="1"/>
+    <col min="8" max="8" width="42.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -36495,27 +36498,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1147</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1148</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>1149</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1152</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -36539,27 +36542,27 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>1153</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1154</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1155</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1158</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>28</v>
@@ -36583,27 +36586,27 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1159</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1160</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>1162</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1165</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -36627,27 +36630,27 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>1168</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>1169</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>1172</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -36671,27 +36674,27 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>1175</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1178</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>21</v>
@@ -36729,13 +36732,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="74.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="74.69140625" customWidth="1"/>
+    <col min="2" max="2" width="30.53515625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="69.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="69.84375" customWidth="1"/>
+    <col min="8" max="8" width="23.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -36764,27 +36767,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>1181</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1184</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -36808,27 +36811,27 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>1185</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1187</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1190</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>14</v>
@@ -36852,27 +36855,27 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1191</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1192</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>1194</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1197</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>21</v>
@@ -36896,27 +36899,27 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1198</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>1200</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>1203</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>28</v>
@@ -36940,27 +36943,27 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1204</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1205</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>1207</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1210</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>28</v>
@@ -36998,16 +37001,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="96.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="93.5546875" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="96.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.3046875" customWidth="1"/>
+    <col min="3" max="3" width="24.69140625" customWidth="1"/>
+    <col min="4" max="4" width="18.4609375" customWidth="1"/>
+    <col min="5" max="5" width="22.53515625" customWidth="1"/>
+    <col min="6" max="6" width="44.69140625" customWidth="1"/>
+    <col min="7" max="7" width="93.53515625" customWidth="1"/>
+    <col min="8" max="8" width="35.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -37036,27 +37039,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1211</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>1213</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>1214</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1217</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>14</v>
@@ -37080,27 +37083,27 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>1218</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1219</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1220</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1223</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>244</v>
@@ -37124,27 +37127,27 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>1226</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1229</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>28</v>
@@ -37168,27 +37171,27 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1230</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1231</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>1232</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>1235</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>244</v>
@@ -37212,27 +37215,27 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1236</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1237</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>1238</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>1239</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1242</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>28</v>
@@ -37270,15 +37273,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.69140625" customWidth="1"/>
+    <col min="2" max="2" width="20.69140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="46.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -37307,27 +37310,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1243</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>1244</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>1245</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1248</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -37351,27 +37354,27 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
@@ -37395,27 +37398,27 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1255</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1256</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>1257</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>1260</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>28</v>
@@ -37439,27 +37442,27 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1262</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>1263</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>1266</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>21</v>
@@ -37483,30 +37486,30 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1267</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1270</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>1269</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>1272</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -37541,12 +37544,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="86.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="86.4609375" customWidth="1"/>
+    <col min="6" max="6" width="25.53515625" customWidth="1"/>
+    <col min="7" max="7" width="34.4609375" customWidth="1"/>
+    <col min="8" max="8" width="23.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -37575,113 +37578,113 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="14.6">
       <c r="A2" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>1273</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>1274</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>1275</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>1276</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>1279</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="14.6">
       <c r="A3" s="16" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>1280</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>1281</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>1282</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>1283</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>1286</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="14.6">
       <c r="A4" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>1287</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>1288</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>1289</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>1290</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>1293</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="14.6">
       <c r="A5" s="16" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>1295</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>1296</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>1299</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="14.6">
       <c r="A6" s="16" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>952</v>
@@ -37690,16 +37693,16 @@
         <v>953</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>952</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>28</v>
@@ -37719,11 +37722,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="77.53515625" customWidth="1"/>
+    <col min="3" max="3" width="25.84375" customWidth="1"/>
+    <col min="7" max="7" width="35.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -37754,7 +37757,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.6">
       <c r="A2" s="10" t="s">
         <v>95</v>
       </c>
@@ -37798,7 +37801,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26" ht="14.6">
       <c r="A3" s="10" t="s">
         <v>102</v>
       </c>
@@ -37842,7 +37845,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26" ht="14.6">
       <c r="A4" s="10" t="s">
         <v>107</v>
       </c>
@@ -37886,7 +37889,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
         <v>113</v>
       </c>
@@ -37930,7 +37933,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
         <v>120</v>
       </c>
@@ -37988,13 +37991,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="36.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.53515625" customWidth="1"/>
+    <col min="6" max="6" width="21.3046875" customWidth="1"/>
+    <col min="7" max="7" width="36.53515625" customWidth="1"/>
+    <col min="8" max="8" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -38157,7 +38160,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="14.6">
       <c r="A5" s="10" t="s">
         <v>148</v>
       </c>
@@ -38259,13 +38262,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
-    <col min="7" max="7" width="59.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="64.69140625" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" customWidth="1"/>
+    <col min="6" max="6" width="26.07421875" customWidth="1"/>
+    <col min="7" max="7" width="59.84375" customWidth="1"/>
+    <col min="8" max="8" width="22.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -38296,7 +38299,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="16.8">
+    <row r="2" spans="1:26" ht="17.149999999999999">
       <c r="A2" s="10" t="s">
         <v>162</v>
       </c>
@@ -38340,7 +38343,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8">
+    <row r="3" spans="1:26" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>167</v>
       </c>
@@ -38384,7 +38387,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="16.8">
+    <row r="4" spans="1:26" ht="17.149999999999999">
       <c r="A4" s="10" t="s">
         <v>174</v>
       </c>
@@ -38428,7 +38431,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="16.8">
+    <row r="5" spans="1:26" ht="17.149999999999999">
       <c r="A5" s="10" t="s">
         <v>181</v>
       </c>
@@ -38530,11 +38533,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="76.6640625" customWidth="1"/>
-    <col min="6" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="76.69140625" customWidth="1"/>
+    <col min="6" max="7" width="28.53515625" customWidth="1"/>
+    <col min="8" max="8" width="28.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -38565,7 +38568,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="16.8">
+    <row r="2" spans="1:26" ht="17.149999999999999">
       <c r="A2" s="10" t="s">
         <v>195</v>
       </c>
@@ -38609,7 +38612,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8">
+    <row r="3" spans="1:26" ht="17.149999999999999">
       <c r="A3" s="10" t="s">
         <v>202</v>
       </c>
@@ -38653,7 +38656,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="16.8">
+    <row r="4" spans="1:26" ht="17.149999999999999">
       <c r="A4" s="10" t="s">
         <v>209</v>
       </c>
@@ -38697,7 +38700,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="16.8">
+    <row r="5" spans="1:26" ht="17.149999999999999">
       <c r="A5" s="10" t="s">
         <v>216</v>
       </c>
@@ -38741,7 +38744,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26" ht="14.6">
       <c r="A6" s="10" t="s">
         <v>223</v>
       </c>
@@ -38785,2986 +38788,2986 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="14.4">
+    <row r="7" spans="1:26" ht="14.6">
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="14.4">
+    <row r="8" spans="1:26" ht="14.6">
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="14.4">
+    <row r="9" spans="1:26" ht="14.6">
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4">
+    <row r="10" spans="1:26" ht="14.6">
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="14.4">
+    <row r="11" spans="1:26" ht="14.6">
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4">
+    <row r="12" spans="1:26" ht="14.6">
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4">
+    <row r="13" spans="1:26" ht="14.6">
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:26" ht="14.6">
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4">
+    <row r="15" spans="1:26" ht="14.6">
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4">
+    <row r="16" spans="1:26" ht="14.6">
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="8:8" ht="14.4">
+    <row r="17" spans="8:8" ht="14.6">
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="8:8" ht="14.4">
+    <row r="18" spans="8:8" ht="14.6">
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="8:8" ht="14.4">
+    <row r="19" spans="8:8" ht="14.6">
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="8:8" ht="14.4">
+    <row r="20" spans="8:8" ht="14.6">
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="8:8" ht="14.4">
+    <row r="21" spans="8:8" ht="14.6">
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="8:8" ht="14.4">
+    <row r="22" spans="8:8" ht="14.6">
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="8:8" ht="14.4">
+    <row r="23" spans="8:8" ht="14.6">
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="8:8" ht="14.4">
+    <row r="24" spans="8:8" ht="14.6">
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="8:8" ht="14.4">
+    <row r="25" spans="8:8" ht="14.6">
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="8:8" ht="14.4">
+    <row r="26" spans="8:8" ht="14.6">
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="8:8" ht="14.4">
+    <row r="27" spans="8:8" ht="14.6">
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="8:8" ht="14.4">
+    <row r="28" spans="8:8" ht="14.6">
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="8:8" ht="14.4">
+    <row r="29" spans="8:8" ht="14.6">
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="8:8" ht="14.4">
+    <row r="30" spans="8:8" ht="14.6">
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="8:8" ht="14.4">
+    <row r="31" spans="8:8" ht="14.6">
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="8:8" ht="14.4">
+    <row r="32" spans="8:8" ht="14.6">
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="8:8" ht="14.4">
+    <row r="33" spans="8:8" ht="14.6">
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="8:8" ht="14.4">
+    <row r="34" spans="8:8" ht="14.6">
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="8:8" ht="14.4">
+    <row r="35" spans="8:8" ht="14.6">
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="8:8" ht="14.4">
+    <row r="36" spans="8:8" ht="14.6">
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="8:8" ht="14.4">
+    <row r="37" spans="8:8" ht="14.6">
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="8:8" ht="14.4">
+    <row r="38" spans="8:8" ht="14.6">
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="8:8" ht="14.4">
+    <row r="39" spans="8:8" ht="14.6">
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="8:8" ht="14.4">
+    <row r="40" spans="8:8" ht="14.6">
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="8:8" ht="14.4">
+    <row r="41" spans="8:8" ht="14.6">
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="8:8" ht="14.4">
+    <row r="42" spans="8:8" ht="14.6">
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="8:8" ht="14.4">
+    <row r="43" spans="8:8" ht="14.6">
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="8:8" ht="14.4">
+    <row r="44" spans="8:8" ht="14.6">
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="8:8" ht="14.4">
+    <row r="45" spans="8:8" ht="14.6">
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="8:8" ht="14.4">
+    <row r="46" spans="8:8" ht="14.6">
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="8:8" ht="14.4">
+    <row r="47" spans="8:8" ht="14.6">
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="8:8" ht="14.4">
+    <row r="48" spans="8:8" ht="14.6">
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="8:8" ht="14.4">
+    <row r="49" spans="8:8" ht="14.6">
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="8:8" ht="14.4">
+    <row r="50" spans="8:8" ht="14.6">
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="8:8" ht="14.4">
+    <row r="51" spans="8:8" ht="14.6">
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="8:8" ht="14.4">
+    <row r="52" spans="8:8" ht="14.6">
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="8:8" ht="14.4">
+    <row r="53" spans="8:8" ht="14.6">
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="8:8" ht="14.4">
+    <row r="54" spans="8:8" ht="14.6">
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="8:8" ht="14.4">
+    <row r="55" spans="8:8" ht="14.6">
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="8:8" ht="14.4">
+    <row r="56" spans="8:8" ht="14.6">
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="8:8" ht="14.4">
+    <row r="57" spans="8:8" ht="14.6">
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="8:8" ht="14.4">
+    <row r="58" spans="8:8" ht="14.6">
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="8:8" ht="14.4">
+    <row r="59" spans="8:8" ht="14.6">
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="8:8" ht="14.4">
+    <row r="60" spans="8:8" ht="14.6">
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="8:8" ht="14.4">
+    <row r="61" spans="8:8" ht="14.6">
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="8:8" ht="14.4">
+    <row r="62" spans="8:8" ht="14.6">
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="8:8" ht="14.4">
+    <row r="63" spans="8:8" ht="14.6">
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="8:8" ht="14.4">
+    <row r="64" spans="8:8" ht="14.6">
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="8:8" ht="14.4">
+    <row r="65" spans="8:8" ht="14.6">
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="8:8" ht="14.4">
+    <row r="66" spans="8:8" ht="14.6">
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="8:8" ht="14.4">
+    <row r="67" spans="8:8" ht="14.6">
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="8:8" ht="14.4">
+    <row r="68" spans="8:8" ht="14.6">
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="8:8" ht="14.4">
+    <row r="69" spans="8:8" ht="14.6">
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="8:8" ht="14.4">
+    <row r="70" spans="8:8" ht="14.6">
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="8:8" ht="14.4">
+    <row r="71" spans="8:8" ht="14.6">
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="8:8" ht="14.4">
+    <row r="72" spans="8:8" ht="14.6">
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="8:8" ht="14.4">
+    <row r="73" spans="8:8" ht="14.6">
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="8:8" ht="14.4">
+    <row r="74" spans="8:8" ht="14.6">
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="8:8" ht="14.4">
+    <row r="75" spans="8:8" ht="14.6">
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="8:8" ht="14.4">
+    <row r="76" spans="8:8" ht="14.6">
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="8:8" ht="14.4">
+    <row r="77" spans="8:8" ht="14.6">
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="8:8" ht="14.4">
+    <row r="78" spans="8:8" ht="14.6">
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="8:8" ht="14.4">
+    <row r="79" spans="8:8" ht="14.6">
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="8:8" ht="14.4">
+    <row r="80" spans="8:8" ht="14.6">
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="8:8" ht="14.4">
+    <row r="81" spans="8:8" ht="14.6">
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="8:8" ht="14.4">
+    <row r="82" spans="8:8" ht="14.6">
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="8:8" ht="14.4">
+    <row r="83" spans="8:8" ht="14.6">
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="8:8" ht="14.4">
+    <row r="84" spans="8:8" ht="14.6">
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="8:8" ht="14.4">
+    <row r="85" spans="8:8" ht="14.6">
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="8:8" ht="14.4">
+    <row r="86" spans="8:8" ht="14.6">
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="8:8" ht="14.4">
+    <row r="87" spans="8:8" ht="14.6">
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="8:8" ht="14.4">
+    <row r="88" spans="8:8" ht="14.6">
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="8:8" ht="14.4">
+    <row r="89" spans="8:8" ht="14.6">
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="8:8" ht="14.4">
+    <row r="90" spans="8:8" ht="14.6">
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="8:8" ht="14.4">
+    <row r="91" spans="8:8" ht="14.6">
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="8:8" ht="14.4">
+    <row r="92" spans="8:8" ht="14.6">
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="8:8" ht="14.4">
+    <row r="93" spans="8:8" ht="14.6">
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="8:8" ht="14.4">
+    <row r="94" spans="8:8" ht="14.6">
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="8:8" ht="14.4">
+    <row r="95" spans="8:8" ht="14.6">
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="8:8" ht="14.4">
+    <row r="96" spans="8:8" ht="14.6">
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="8:8" ht="14.4">
+    <row r="97" spans="8:8" ht="14.6">
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="8:8" ht="14.4">
+    <row r="98" spans="8:8" ht="14.6">
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="8:8" ht="14.4">
+    <row r="99" spans="8:8" ht="14.6">
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="8:8" ht="14.4">
+    <row r="100" spans="8:8" ht="14.6">
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="8:8" ht="14.4">
+    <row r="101" spans="8:8" ht="14.6">
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="8:8" ht="14.4">
+    <row r="102" spans="8:8" ht="14.6">
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="8:8" ht="14.4">
+    <row r="103" spans="8:8" ht="14.6">
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="8:8" ht="14.4">
+    <row r="104" spans="8:8" ht="14.6">
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="8:8" ht="14.4">
+    <row r="105" spans="8:8" ht="14.6">
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="8:8" ht="14.4">
+    <row r="106" spans="8:8" ht="14.6">
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="8:8" ht="14.4">
+    <row r="107" spans="8:8" ht="14.6">
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="8:8" ht="14.4">
+    <row r="108" spans="8:8" ht="14.6">
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="8:8" ht="14.4">
+    <row r="109" spans="8:8" ht="14.6">
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="8:8" ht="14.4">
+    <row r="110" spans="8:8" ht="14.6">
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="8:8" ht="14.4">
+    <row r="111" spans="8:8" ht="14.6">
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="8:8" ht="14.4">
+    <row r="112" spans="8:8" ht="14.6">
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="8:8" ht="14.4">
+    <row r="113" spans="8:8" ht="14.6">
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="8:8" ht="14.4">
+    <row r="114" spans="8:8" ht="14.6">
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="8:8" ht="14.4">
+    <row r="115" spans="8:8" ht="14.6">
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="8:8" ht="14.4">
+    <row r="116" spans="8:8" ht="14.6">
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="8:8" ht="14.4">
+    <row r="117" spans="8:8" ht="14.6">
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="8:8" ht="14.4">
+    <row r="118" spans="8:8" ht="14.6">
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="8:8" ht="14.4">
+    <row r="119" spans="8:8" ht="14.6">
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="8:8" ht="14.4">
+    <row r="120" spans="8:8" ht="14.6">
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="8:8" ht="14.4">
+    <row r="121" spans="8:8" ht="14.6">
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="8:8" ht="14.4">
+    <row r="122" spans="8:8" ht="14.6">
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="8:8" ht="14.4">
+    <row r="123" spans="8:8" ht="14.6">
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="8:8" ht="14.4">
+    <row r="124" spans="8:8" ht="14.6">
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="8:8" ht="14.4">
+    <row r="125" spans="8:8" ht="14.6">
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="8:8" ht="14.4">
+    <row r="126" spans="8:8" ht="14.6">
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="8:8" ht="14.4">
+    <row r="127" spans="8:8" ht="14.6">
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="8:8" ht="14.4">
+    <row r="128" spans="8:8" ht="14.6">
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="8:8" ht="14.4">
+    <row r="129" spans="8:8" ht="14.6">
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="8:8" ht="14.4">
+    <row r="130" spans="8:8" ht="14.6">
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="8:8" ht="14.4">
+    <row r="131" spans="8:8" ht="14.6">
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="8:8" ht="14.4">
+    <row r="132" spans="8:8" ht="14.6">
       <c r="H132" s="10"/>
     </row>
-    <row r="133" spans="8:8" ht="14.4">
+    <row r="133" spans="8:8" ht="14.6">
       <c r="H133" s="10"/>
     </row>
-    <row r="134" spans="8:8" ht="14.4">
+    <row r="134" spans="8:8" ht="14.6">
       <c r="H134" s="10"/>
     </row>
-    <row r="135" spans="8:8" ht="14.4">
+    <row r="135" spans="8:8" ht="14.6">
       <c r="H135" s="10"/>
     </row>
-    <row r="136" spans="8:8" ht="14.4">
+    <row r="136" spans="8:8" ht="14.6">
       <c r="H136" s="10"/>
     </row>
-    <row r="137" spans="8:8" ht="14.4">
+    <row r="137" spans="8:8" ht="14.6">
       <c r="H137" s="10"/>
     </row>
-    <row r="138" spans="8:8" ht="14.4">
+    <row r="138" spans="8:8" ht="14.6">
       <c r="H138" s="10"/>
     </row>
-    <row r="139" spans="8:8" ht="14.4">
+    <row r="139" spans="8:8" ht="14.6">
       <c r="H139" s="10"/>
     </row>
-    <row r="140" spans="8:8" ht="14.4">
+    <row r="140" spans="8:8" ht="14.6">
       <c r="H140" s="10"/>
     </row>
-    <row r="141" spans="8:8" ht="14.4">
+    <row r="141" spans="8:8" ht="14.6">
       <c r="H141" s="10"/>
     </row>
-    <row r="142" spans="8:8" ht="14.4">
+    <row r="142" spans="8:8" ht="14.6">
       <c r="H142" s="10"/>
     </row>
-    <row r="143" spans="8:8" ht="14.4">
+    <row r="143" spans="8:8" ht="14.6">
       <c r="H143" s="10"/>
     </row>
-    <row r="144" spans="8:8" ht="14.4">
+    <row r="144" spans="8:8" ht="14.6">
       <c r="H144" s="10"/>
     </row>
-    <row r="145" spans="8:8" ht="14.4">
+    <row r="145" spans="8:8" ht="14.6">
       <c r="H145" s="10"/>
     </row>
-    <row r="146" spans="8:8" ht="14.4">
+    <row r="146" spans="8:8" ht="14.6">
       <c r="H146" s="10"/>
     </row>
-    <row r="147" spans="8:8" ht="14.4">
+    <row r="147" spans="8:8" ht="14.6">
       <c r="H147" s="10"/>
     </row>
-    <row r="148" spans="8:8" ht="14.4">
+    <row r="148" spans="8:8" ht="14.6">
       <c r="H148" s="10"/>
     </row>
-    <row r="149" spans="8:8" ht="14.4">
+    <row r="149" spans="8:8" ht="14.6">
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="8:8" ht="14.4">
+    <row r="150" spans="8:8" ht="14.6">
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="8:8" ht="14.4">
+    <row r="151" spans="8:8" ht="14.6">
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="8:8" ht="14.4">
+    <row r="152" spans="8:8" ht="14.6">
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="8:8" ht="14.4">
+    <row r="153" spans="8:8" ht="14.6">
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="8:8" ht="14.4">
+    <row r="154" spans="8:8" ht="14.6">
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="8:8" ht="14.4">
+    <row r="155" spans="8:8" ht="14.6">
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="8:8" ht="14.4">
+    <row r="156" spans="8:8" ht="14.6">
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="8:8" ht="14.4">
+    <row r="157" spans="8:8" ht="14.6">
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="8:8" ht="14.4">
+    <row r="158" spans="8:8" ht="14.6">
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="8:8" ht="14.4">
+    <row r="159" spans="8:8" ht="14.6">
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="8:8" ht="14.4">
+    <row r="160" spans="8:8" ht="14.6">
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="8:8" ht="14.4">
+    <row r="161" spans="8:8" ht="14.6">
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="8:8" ht="14.4">
+    <row r="162" spans="8:8" ht="14.6">
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="8:8" ht="14.4">
+    <row r="163" spans="8:8" ht="14.6">
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="8:8" ht="14.4">
+    <row r="164" spans="8:8" ht="14.6">
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="8:8" ht="14.4">
+    <row r="165" spans="8:8" ht="14.6">
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="8:8" ht="14.4">
+    <row r="166" spans="8:8" ht="14.6">
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="8:8" ht="14.4">
+    <row r="167" spans="8:8" ht="14.6">
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="8:8" ht="14.4">
+    <row r="168" spans="8:8" ht="14.6">
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="8:8" ht="14.4">
+    <row r="169" spans="8:8" ht="14.6">
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="8:8" ht="14.4">
+    <row r="170" spans="8:8" ht="14.6">
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="8:8" ht="14.4">
+    <row r="171" spans="8:8" ht="14.6">
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="8:8" ht="14.4">
+    <row r="172" spans="8:8" ht="14.6">
       <c r="H172" s="10"/>
     </row>
-    <row r="173" spans="8:8" ht="14.4">
+    <row r="173" spans="8:8" ht="14.6">
       <c r="H173" s="10"/>
     </row>
-    <row r="174" spans="8:8" ht="14.4">
+    <row r="174" spans="8:8" ht="14.6">
       <c r="H174" s="10"/>
     </row>
-    <row r="175" spans="8:8" ht="14.4">
+    <row r="175" spans="8:8" ht="14.6">
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="8:8" ht="14.4">
+    <row r="176" spans="8:8" ht="14.6">
       <c r="H176" s="10"/>
     </row>
-    <row r="177" spans="8:8" ht="14.4">
+    <row r="177" spans="8:8" ht="14.6">
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="8:8" ht="14.4">
+    <row r="178" spans="8:8" ht="14.6">
       <c r="H178" s="10"/>
     </row>
-    <row r="179" spans="8:8" ht="14.4">
+    <row r="179" spans="8:8" ht="14.6">
       <c r="H179" s="10"/>
     </row>
-    <row r="180" spans="8:8" ht="14.4">
+    <row r="180" spans="8:8" ht="14.6">
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="8:8" ht="14.4">
+    <row r="181" spans="8:8" ht="14.6">
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="8:8" ht="14.4">
+    <row r="182" spans="8:8" ht="14.6">
       <c r="H182" s="10"/>
     </row>
-    <row r="183" spans="8:8" ht="14.4">
+    <row r="183" spans="8:8" ht="14.6">
       <c r="H183" s="10"/>
     </row>
-    <row r="184" spans="8:8" ht="14.4">
+    <row r="184" spans="8:8" ht="14.6">
       <c r="H184" s="10"/>
     </row>
-    <row r="185" spans="8:8" ht="14.4">
+    <row r="185" spans="8:8" ht="14.6">
       <c r="H185" s="10"/>
     </row>
-    <row r="186" spans="8:8" ht="14.4">
+    <row r="186" spans="8:8" ht="14.6">
       <c r="H186" s="10"/>
     </row>
-    <row r="187" spans="8:8" ht="14.4">
+    <row r="187" spans="8:8" ht="14.6">
       <c r="H187" s="10"/>
     </row>
-    <row r="188" spans="8:8" ht="14.4">
+    <row r="188" spans="8:8" ht="14.6">
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="8:8" ht="14.4">
+    <row r="189" spans="8:8" ht="14.6">
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="8:8" ht="14.4">
+    <row r="190" spans="8:8" ht="14.6">
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="8:8" ht="14.4">
+    <row r="191" spans="8:8" ht="14.6">
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="8:8" ht="14.4">
+    <row r="192" spans="8:8" ht="14.6">
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="8:8" ht="14.4">
+    <row r="193" spans="8:8" ht="14.6">
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="8:8" ht="14.4">
+    <row r="194" spans="8:8" ht="14.6">
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="8:8" ht="14.4">
+    <row r="195" spans="8:8" ht="14.6">
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="8:8" ht="14.4">
+    <row r="196" spans="8:8" ht="14.6">
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="8:8" ht="14.4">
+    <row r="197" spans="8:8" ht="14.6">
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="8:8" ht="14.4">
+    <row r="198" spans="8:8" ht="14.6">
       <c r="H198" s="10"/>
     </row>
-    <row r="199" spans="8:8" ht="14.4">
+    <row r="199" spans="8:8" ht="14.6">
       <c r="H199" s="10"/>
     </row>
-    <row r="200" spans="8:8" ht="14.4">
+    <row r="200" spans="8:8" ht="14.6">
       <c r="H200" s="10"/>
     </row>
-    <row r="201" spans="8:8" ht="14.4">
+    <row r="201" spans="8:8" ht="14.6">
       <c r="H201" s="10"/>
     </row>
-    <row r="202" spans="8:8" ht="14.4">
+    <row r="202" spans="8:8" ht="14.6">
       <c r="H202" s="10"/>
     </row>
-    <row r="203" spans="8:8" ht="14.4">
+    <row r="203" spans="8:8" ht="14.6">
       <c r="H203" s="10"/>
     </row>
-    <row r="204" spans="8:8" ht="14.4">
+    <row r="204" spans="8:8" ht="14.6">
       <c r="H204" s="10"/>
     </row>
-    <row r="205" spans="8:8" ht="14.4">
+    <row r="205" spans="8:8" ht="14.6">
       <c r="H205" s="10"/>
     </row>
-    <row r="206" spans="8:8" ht="14.4">
+    <row r="206" spans="8:8" ht="14.6">
       <c r="H206" s="10"/>
     </row>
-    <row r="207" spans="8:8" ht="14.4">
+    <row r="207" spans="8:8" ht="14.6">
       <c r="H207" s="10"/>
     </row>
-    <row r="208" spans="8:8" ht="14.4">
+    <row r="208" spans="8:8" ht="14.6">
       <c r="H208" s="10"/>
     </row>
-    <row r="209" spans="8:8" ht="14.4">
+    <row r="209" spans="8:8" ht="14.6">
       <c r="H209" s="10"/>
     </row>
-    <row r="210" spans="8:8" ht="14.4">
+    <row r="210" spans="8:8" ht="14.6">
       <c r="H210" s="10"/>
     </row>
-    <row r="211" spans="8:8" ht="14.4">
+    <row r="211" spans="8:8" ht="14.6">
       <c r="H211" s="10"/>
     </row>
-    <row r="212" spans="8:8" ht="14.4">
+    <row r="212" spans="8:8" ht="14.6">
       <c r="H212" s="10"/>
     </row>
-    <row r="213" spans="8:8" ht="14.4">
+    <row r="213" spans="8:8" ht="14.6">
       <c r="H213" s="10"/>
     </row>
-    <row r="214" spans="8:8" ht="14.4">
+    <row r="214" spans="8:8" ht="14.6">
       <c r="H214" s="10"/>
     </row>
-    <row r="215" spans="8:8" ht="14.4">
+    <row r="215" spans="8:8" ht="14.6">
       <c r="H215" s="10"/>
     </row>
-    <row r="216" spans="8:8" ht="14.4">
+    <row r="216" spans="8:8" ht="14.6">
       <c r="H216" s="10"/>
     </row>
-    <row r="217" spans="8:8" ht="14.4">
+    <row r="217" spans="8:8" ht="14.6">
       <c r="H217" s="10"/>
     </row>
-    <row r="218" spans="8:8" ht="14.4">
+    <row r="218" spans="8:8" ht="14.6">
       <c r="H218" s="10"/>
     </row>
-    <row r="219" spans="8:8" ht="14.4">
+    <row r="219" spans="8:8" ht="14.6">
       <c r="H219" s="10"/>
     </row>
-    <row r="220" spans="8:8" ht="14.4">
+    <row r="220" spans="8:8" ht="14.6">
       <c r="H220" s="10"/>
     </row>
-    <row r="221" spans="8:8" ht="14.4">
+    <row r="221" spans="8:8" ht="14.6">
       <c r="H221" s="10"/>
     </row>
-    <row r="222" spans="8:8" ht="14.4">
+    <row r="222" spans="8:8" ht="14.6">
       <c r="H222" s="10"/>
     </row>
-    <row r="223" spans="8:8" ht="14.4">
+    <row r="223" spans="8:8" ht="14.6">
       <c r="H223" s="10"/>
     </row>
-    <row r="224" spans="8:8" ht="14.4">
+    <row r="224" spans="8:8" ht="14.6">
       <c r="H224" s="10"/>
     </row>
-    <row r="225" spans="8:8" ht="14.4">
+    <row r="225" spans="8:8" ht="14.6">
       <c r="H225" s="10"/>
     </row>
-    <row r="226" spans="8:8" ht="14.4">
+    <row r="226" spans="8:8" ht="14.6">
       <c r="H226" s="10"/>
     </row>
-    <row r="227" spans="8:8" ht="14.4">
+    <row r="227" spans="8:8" ht="14.6">
       <c r="H227" s="10"/>
     </row>
-    <row r="228" spans="8:8" ht="14.4">
+    <row r="228" spans="8:8" ht="14.6">
       <c r="H228" s="10"/>
     </row>
-    <row r="229" spans="8:8" ht="14.4">
+    <row r="229" spans="8:8" ht="14.6">
       <c r="H229" s="10"/>
     </row>
-    <row r="230" spans="8:8" ht="14.4">
+    <row r="230" spans="8:8" ht="14.6">
       <c r="H230" s="10"/>
     </row>
-    <row r="231" spans="8:8" ht="14.4">
+    <row r="231" spans="8:8" ht="14.6">
       <c r="H231" s="10"/>
     </row>
-    <row r="232" spans="8:8" ht="14.4">
+    <row r="232" spans="8:8" ht="14.6">
       <c r="H232" s="10"/>
     </row>
-    <row r="233" spans="8:8" ht="14.4">
+    <row r="233" spans="8:8" ht="14.6">
       <c r="H233" s="10"/>
     </row>
-    <row r="234" spans="8:8" ht="14.4">
+    <row r="234" spans="8:8" ht="14.6">
       <c r="H234" s="10"/>
     </row>
-    <row r="235" spans="8:8" ht="14.4">
+    <row r="235" spans="8:8" ht="14.6">
       <c r="H235" s="10"/>
     </row>
-    <row r="236" spans="8:8" ht="14.4">
+    <row r="236" spans="8:8" ht="14.6">
       <c r="H236" s="10"/>
     </row>
-    <row r="237" spans="8:8" ht="14.4">
+    <row r="237" spans="8:8" ht="14.6">
       <c r="H237" s="10"/>
     </row>
-    <row r="238" spans="8:8" ht="14.4">
+    <row r="238" spans="8:8" ht="14.6">
       <c r="H238" s="10"/>
     </row>
-    <row r="239" spans="8:8" ht="14.4">
+    <row r="239" spans="8:8" ht="14.6">
       <c r="H239" s="10"/>
     </row>
-    <row r="240" spans="8:8" ht="14.4">
+    <row r="240" spans="8:8" ht="14.6">
       <c r="H240" s="10"/>
     </row>
-    <row r="241" spans="8:8" ht="14.4">
+    <row r="241" spans="8:8" ht="14.6">
       <c r="H241" s="10"/>
     </row>
-    <row r="242" spans="8:8" ht="14.4">
+    <row r="242" spans="8:8" ht="14.6">
       <c r="H242" s="10"/>
     </row>
-    <row r="243" spans="8:8" ht="14.4">
+    <row r="243" spans="8:8" ht="14.6">
       <c r="H243" s="10"/>
     </row>
-    <row r="244" spans="8:8" ht="14.4">
+    <row r="244" spans="8:8" ht="14.6">
       <c r="H244" s="10"/>
     </row>
-    <row r="245" spans="8:8" ht="14.4">
+    <row r="245" spans="8:8" ht="14.6">
       <c r="H245" s="10"/>
     </row>
-    <row r="246" spans="8:8" ht="14.4">
+    <row r="246" spans="8:8" ht="14.6">
       <c r="H246" s="10"/>
     </row>
-    <row r="247" spans="8:8" ht="14.4">
+    <row r="247" spans="8:8" ht="14.6">
       <c r="H247" s="10"/>
     </row>
-    <row r="248" spans="8:8" ht="14.4">
+    <row r="248" spans="8:8" ht="14.6">
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="8:8" ht="14.4">
+    <row r="249" spans="8:8" ht="14.6">
       <c r="H249" s="10"/>
     </row>
-    <row r="250" spans="8:8" ht="14.4">
+    <row r="250" spans="8:8" ht="14.6">
       <c r="H250" s="10"/>
     </row>
-    <row r="251" spans="8:8" ht="14.4">
+    <row r="251" spans="8:8" ht="14.6">
       <c r="H251" s="10"/>
     </row>
-    <row r="252" spans="8:8" ht="14.4">
+    <row r="252" spans="8:8" ht="14.6">
       <c r="H252" s="10"/>
     </row>
-    <row r="253" spans="8:8" ht="14.4">
+    <row r="253" spans="8:8" ht="14.6">
       <c r="H253" s="10"/>
     </row>
-    <row r="254" spans="8:8" ht="14.4">
+    <row r="254" spans="8:8" ht="14.6">
       <c r="H254" s="10"/>
     </row>
-    <row r="255" spans="8:8" ht="14.4">
+    <row r="255" spans="8:8" ht="14.6">
       <c r="H255" s="10"/>
     </row>
-    <row r="256" spans="8:8" ht="14.4">
+    <row r="256" spans="8:8" ht="14.6">
       <c r="H256" s="10"/>
     </row>
-    <row r="257" spans="8:8" ht="14.4">
+    <row r="257" spans="8:8" ht="14.6">
       <c r="H257" s="10"/>
     </row>
-    <row r="258" spans="8:8" ht="14.4">
+    <row r="258" spans="8:8" ht="14.6">
       <c r="H258" s="10"/>
     </row>
-    <row r="259" spans="8:8" ht="14.4">
+    <row r="259" spans="8:8" ht="14.6">
       <c r="H259" s="10"/>
     </row>
-    <row r="260" spans="8:8" ht="14.4">
+    <row r="260" spans="8:8" ht="14.6">
       <c r="H260" s="10"/>
     </row>
-    <row r="261" spans="8:8" ht="14.4">
+    <row r="261" spans="8:8" ht="14.6">
       <c r="H261" s="10"/>
     </row>
-    <row r="262" spans="8:8" ht="14.4">
+    <row r="262" spans="8:8" ht="14.6">
       <c r="H262" s="10"/>
     </row>
-    <row r="263" spans="8:8" ht="14.4">
+    <row r="263" spans="8:8" ht="14.6">
       <c r="H263" s="10"/>
     </row>
-    <row r="264" spans="8:8" ht="14.4">
+    <row r="264" spans="8:8" ht="14.6">
       <c r="H264" s="10"/>
     </row>
-    <row r="265" spans="8:8" ht="14.4">
+    <row r="265" spans="8:8" ht="14.6">
       <c r="H265" s="10"/>
     </row>
-    <row r="266" spans="8:8" ht="14.4">
+    <row r="266" spans="8:8" ht="14.6">
       <c r="H266" s="10"/>
     </row>
-    <row r="267" spans="8:8" ht="14.4">
+    <row r="267" spans="8:8" ht="14.6">
       <c r="H267" s="10"/>
     </row>
-    <row r="268" spans="8:8" ht="14.4">
+    <row r="268" spans="8:8" ht="14.6">
       <c r="H268" s="10"/>
     </row>
-    <row r="269" spans="8:8" ht="14.4">
+    <row r="269" spans="8:8" ht="14.6">
       <c r="H269" s="10"/>
     </row>
-    <row r="270" spans="8:8" ht="14.4">
+    <row r="270" spans="8:8" ht="14.6">
       <c r="H270" s="10"/>
     </row>
-    <row r="271" spans="8:8" ht="14.4">
+    <row r="271" spans="8:8" ht="14.6">
       <c r="H271" s="10"/>
     </row>
-    <row r="272" spans="8:8" ht="14.4">
+    <row r="272" spans="8:8" ht="14.6">
       <c r="H272" s="10"/>
     </row>
-    <row r="273" spans="8:8" ht="14.4">
+    <row r="273" spans="8:8" ht="14.6">
       <c r="H273" s="10"/>
     </row>
-    <row r="274" spans="8:8" ht="14.4">
+    <row r="274" spans="8:8" ht="14.6">
       <c r="H274" s="10"/>
     </row>
-    <row r="275" spans="8:8" ht="14.4">
+    <row r="275" spans="8:8" ht="14.6">
       <c r="H275" s="10"/>
     </row>
-    <row r="276" spans="8:8" ht="14.4">
+    <row r="276" spans="8:8" ht="14.6">
       <c r="H276" s="10"/>
     </row>
-    <row r="277" spans="8:8" ht="14.4">
+    <row r="277" spans="8:8" ht="14.6">
       <c r="H277" s="10"/>
     </row>
-    <row r="278" spans="8:8" ht="14.4">
+    <row r="278" spans="8:8" ht="14.6">
       <c r="H278" s="10"/>
     </row>
-    <row r="279" spans="8:8" ht="14.4">
+    <row r="279" spans="8:8" ht="14.6">
       <c r="H279" s="10"/>
     </row>
-    <row r="280" spans="8:8" ht="14.4">
+    <row r="280" spans="8:8" ht="14.6">
       <c r="H280" s="10"/>
     </row>
-    <row r="281" spans="8:8" ht="14.4">
+    <row r="281" spans="8:8" ht="14.6">
       <c r="H281" s="10"/>
     </row>
-    <row r="282" spans="8:8" ht="14.4">
+    <row r="282" spans="8:8" ht="14.6">
       <c r="H282" s="10"/>
     </row>
-    <row r="283" spans="8:8" ht="14.4">
+    <row r="283" spans="8:8" ht="14.6">
       <c r="H283" s="10"/>
     </row>
-    <row r="284" spans="8:8" ht="14.4">
+    <row r="284" spans="8:8" ht="14.6">
       <c r="H284" s="10"/>
     </row>
-    <row r="285" spans="8:8" ht="14.4">
+    <row r="285" spans="8:8" ht="14.6">
       <c r="H285" s="10"/>
     </row>
-    <row r="286" spans="8:8" ht="14.4">
+    <row r="286" spans="8:8" ht="14.6">
       <c r="H286" s="10"/>
     </row>
-    <row r="287" spans="8:8" ht="14.4">
+    <row r="287" spans="8:8" ht="14.6">
       <c r="H287" s="10"/>
     </row>
-    <row r="288" spans="8:8" ht="14.4">
+    <row r="288" spans="8:8" ht="14.6">
       <c r="H288" s="10"/>
     </row>
-    <row r="289" spans="8:8" ht="14.4">
+    <row r="289" spans="8:8" ht="14.6">
       <c r="H289" s="10"/>
     </row>
-    <row r="290" spans="8:8" ht="14.4">
+    <row r="290" spans="8:8" ht="14.6">
       <c r="H290" s="10"/>
     </row>
-    <row r="291" spans="8:8" ht="14.4">
+    <row r="291" spans="8:8" ht="14.6">
       <c r="H291" s="10"/>
     </row>
-    <row r="292" spans="8:8" ht="14.4">
+    <row r="292" spans="8:8" ht="14.6">
       <c r="H292" s="10"/>
     </row>
-    <row r="293" spans="8:8" ht="14.4">
+    <row r="293" spans="8:8" ht="14.6">
       <c r="H293" s="10"/>
     </row>
-    <row r="294" spans="8:8" ht="14.4">
+    <row r="294" spans="8:8" ht="14.6">
       <c r="H294" s="10"/>
     </row>
-    <row r="295" spans="8:8" ht="14.4">
+    <row r="295" spans="8:8" ht="14.6">
       <c r="H295" s="10"/>
     </row>
-    <row r="296" spans="8:8" ht="14.4">
+    <row r="296" spans="8:8" ht="14.6">
       <c r="H296" s="10"/>
     </row>
-    <row r="297" spans="8:8" ht="14.4">
+    <row r="297" spans="8:8" ht="14.6">
       <c r="H297" s="10"/>
     </row>
-    <row r="298" spans="8:8" ht="14.4">
+    <row r="298" spans="8:8" ht="14.6">
       <c r="H298" s="10"/>
     </row>
-    <row r="299" spans="8:8" ht="14.4">
+    <row r="299" spans="8:8" ht="14.6">
       <c r="H299" s="10"/>
     </row>
-    <row r="300" spans="8:8" ht="14.4">
+    <row r="300" spans="8:8" ht="14.6">
       <c r="H300" s="10"/>
     </row>
-    <row r="301" spans="8:8" ht="14.4">
+    <row r="301" spans="8:8" ht="14.6">
       <c r="H301" s="10"/>
     </row>
-    <row r="302" spans="8:8" ht="14.4">
+    <row r="302" spans="8:8" ht="14.6">
       <c r="H302" s="10"/>
     </row>
-    <row r="303" spans="8:8" ht="14.4">
+    <row r="303" spans="8:8" ht="14.6">
       <c r="H303" s="10"/>
     </row>
-    <row r="304" spans="8:8" ht="14.4">
+    <row r="304" spans="8:8" ht="14.6">
       <c r="H304" s="10"/>
     </row>
-    <row r="305" spans="8:8" ht="14.4">
+    <row r="305" spans="8:8" ht="14.6">
       <c r="H305" s="10"/>
     </row>
-    <row r="306" spans="8:8" ht="14.4">
+    <row r="306" spans="8:8" ht="14.6">
       <c r="H306" s="10"/>
     </row>
-    <row r="307" spans="8:8" ht="14.4">
+    <row r="307" spans="8:8" ht="14.6">
       <c r="H307" s="10"/>
     </row>
-    <row r="308" spans="8:8" ht="14.4">
+    <row r="308" spans="8:8" ht="14.6">
       <c r="H308" s="10"/>
     </row>
-    <row r="309" spans="8:8" ht="14.4">
+    <row r="309" spans="8:8" ht="14.6">
       <c r="H309" s="10"/>
     </row>
-    <row r="310" spans="8:8" ht="14.4">
+    <row r="310" spans="8:8" ht="14.6">
       <c r="H310" s="10"/>
     </row>
-    <row r="311" spans="8:8" ht="14.4">
+    <row r="311" spans="8:8" ht="14.6">
       <c r="H311" s="10"/>
     </row>
-    <row r="312" spans="8:8" ht="14.4">
+    <row r="312" spans="8:8" ht="14.6">
       <c r="H312" s="10"/>
     </row>
-    <row r="313" spans="8:8" ht="14.4">
+    <row r="313" spans="8:8" ht="14.6">
       <c r="H313" s="10"/>
     </row>
-    <row r="314" spans="8:8" ht="14.4">
+    <row r="314" spans="8:8" ht="14.6">
       <c r="H314" s="10"/>
     </row>
-    <row r="315" spans="8:8" ht="14.4">
+    <row r="315" spans="8:8" ht="14.6">
       <c r="H315" s="10"/>
     </row>
-    <row r="316" spans="8:8" ht="14.4">
+    <row r="316" spans="8:8" ht="14.6">
       <c r="H316" s="10"/>
     </row>
-    <row r="317" spans="8:8" ht="14.4">
+    <row r="317" spans="8:8" ht="14.6">
       <c r="H317" s="10"/>
     </row>
-    <row r="318" spans="8:8" ht="14.4">
+    <row r="318" spans="8:8" ht="14.6">
       <c r="H318" s="10"/>
     </row>
-    <row r="319" spans="8:8" ht="14.4">
+    <row r="319" spans="8:8" ht="14.6">
       <c r="H319" s="10"/>
     </row>
-    <row r="320" spans="8:8" ht="14.4">
+    <row r="320" spans="8:8" ht="14.6">
       <c r="H320" s="10"/>
     </row>
-    <row r="321" spans="8:8" ht="14.4">
+    <row r="321" spans="8:8" ht="14.6">
       <c r="H321" s="10"/>
     </row>
-    <row r="322" spans="8:8" ht="14.4">
+    <row r="322" spans="8:8" ht="14.6">
       <c r="H322" s="10"/>
     </row>
-    <row r="323" spans="8:8" ht="14.4">
+    <row r="323" spans="8:8" ht="14.6">
       <c r="H323" s="10"/>
     </row>
-    <row r="324" spans="8:8" ht="14.4">
+    <row r="324" spans="8:8" ht="14.6">
       <c r="H324" s="10"/>
     </row>
-    <row r="325" spans="8:8" ht="14.4">
+    <row r="325" spans="8:8" ht="14.6">
       <c r="H325" s="10"/>
     </row>
-    <row r="326" spans="8:8" ht="14.4">
+    <row r="326" spans="8:8" ht="14.6">
       <c r="H326" s="10"/>
     </row>
-    <row r="327" spans="8:8" ht="14.4">
+    <row r="327" spans="8:8" ht="14.6">
       <c r="H327" s="10"/>
     </row>
-    <row r="328" spans="8:8" ht="14.4">
+    <row r="328" spans="8:8" ht="14.6">
       <c r="H328" s="10"/>
     </row>
-    <row r="329" spans="8:8" ht="14.4">
+    <row r="329" spans="8:8" ht="14.6">
       <c r="H329" s="10"/>
     </row>
-    <row r="330" spans="8:8" ht="14.4">
+    <row r="330" spans="8:8" ht="14.6">
       <c r="H330" s="10"/>
     </row>
-    <row r="331" spans="8:8" ht="14.4">
+    <row r="331" spans="8:8" ht="14.6">
       <c r="H331" s="10"/>
     </row>
-    <row r="332" spans="8:8" ht="14.4">
+    <row r="332" spans="8:8" ht="14.6">
       <c r="H332" s="10"/>
     </row>
-    <row r="333" spans="8:8" ht="14.4">
+    <row r="333" spans="8:8" ht="14.6">
       <c r="H333" s="10"/>
     </row>
-    <row r="334" spans="8:8" ht="14.4">
+    <row r="334" spans="8:8" ht="14.6">
       <c r="H334" s="10"/>
     </row>
-    <row r="335" spans="8:8" ht="14.4">
+    <row r="335" spans="8:8" ht="14.6">
       <c r="H335" s="10"/>
     </row>
-    <row r="336" spans="8:8" ht="14.4">
+    <row r="336" spans="8:8" ht="14.6">
       <c r="H336" s="10"/>
     </row>
-    <row r="337" spans="8:8" ht="14.4">
+    <row r="337" spans="8:8" ht="14.6">
       <c r="H337" s="10"/>
     </row>
-    <row r="338" spans="8:8" ht="14.4">
+    <row r="338" spans="8:8" ht="14.6">
       <c r="H338" s="10"/>
     </row>
-    <row r="339" spans="8:8" ht="14.4">
+    <row r="339" spans="8:8" ht="14.6">
       <c r="H339" s="10"/>
     </row>
-    <row r="340" spans="8:8" ht="14.4">
+    <row r="340" spans="8:8" ht="14.6">
       <c r="H340" s="10"/>
     </row>
-    <row r="341" spans="8:8" ht="14.4">
+    <row r="341" spans="8:8" ht="14.6">
       <c r="H341" s="10"/>
     </row>
-    <row r="342" spans="8:8" ht="14.4">
+    <row r="342" spans="8:8" ht="14.6">
       <c r="H342" s="10"/>
     </row>
-    <row r="343" spans="8:8" ht="14.4">
+    <row r="343" spans="8:8" ht="14.6">
       <c r="H343" s="10"/>
     </row>
-    <row r="344" spans="8:8" ht="14.4">
+    <row r="344" spans="8:8" ht="14.6">
       <c r="H344" s="10"/>
     </row>
-    <row r="345" spans="8:8" ht="14.4">
+    <row r="345" spans="8:8" ht="14.6">
       <c r="H345" s="10"/>
     </row>
-    <row r="346" spans="8:8" ht="14.4">
+    <row r="346" spans="8:8" ht="14.6">
       <c r="H346" s="10"/>
     </row>
-    <row r="347" spans="8:8" ht="14.4">
+    <row r="347" spans="8:8" ht="14.6">
       <c r="H347" s="10"/>
     </row>
-    <row r="348" spans="8:8" ht="14.4">
+    <row r="348" spans="8:8" ht="14.6">
       <c r="H348" s="10"/>
     </row>
-    <row r="349" spans="8:8" ht="14.4">
+    <row r="349" spans="8:8" ht="14.6">
       <c r="H349" s="10"/>
     </row>
-    <row r="350" spans="8:8" ht="14.4">
+    <row r="350" spans="8:8" ht="14.6">
       <c r="H350" s="10"/>
     </row>
-    <row r="351" spans="8:8" ht="14.4">
+    <row r="351" spans="8:8" ht="14.6">
       <c r="H351" s="10"/>
     </row>
-    <row r="352" spans="8:8" ht="14.4">
+    <row r="352" spans="8:8" ht="14.6">
       <c r="H352" s="10"/>
     </row>
-    <row r="353" spans="8:8" ht="14.4">
+    <row r="353" spans="8:8" ht="14.6">
       <c r="H353" s="10"/>
     </row>
-    <row r="354" spans="8:8" ht="14.4">
+    <row r="354" spans="8:8" ht="14.6">
       <c r="H354" s="10"/>
     </row>
-    <row r="355" spans="8:8" ht="14.4">
+    <row r="355" spans="8:8" ht="14.6">
       <c r="H355" s="10"/>
     </row>
-    <row r="356" spans="8:8" ht="14.4">
+    <row r="356" spans="8:8" ht="14.6">
       <c r="H356" s="10"/>
     </row>
-    <row r="357" spans="8:8" ht="14.4">
+    <row r="357" spans="8:8" ht="14.6">
       <c r="H357" s="10"/>
     </row>
-    <row r="358" spans="8:8" ht="14.4">
+    <row r="358" spans="8:8" ht="14.6">
       <c r="H358" s="10"/>
     </row>
-    <row r="359" spans="8:8" ht="14.4">
+    <row r="359" spans="8:8" ht="14.6">
       <c r="H359" s="10"/>
     </row>
-    <row r="360" spans="8:8" ht="14.4">
+    <row r="360" spans="8:8" ht="14.6">
       <c r="H360" s="10"/>
     </row>
-    <row r="361" spans="8:8" ht="14.4">
+    <row r="361" spans="8:8" ht="14.6">
       <c r="H361" s="10"/>
     </row>
-    <row r="362" spans="8:8" ht="14.4">
+    <row r="362" spans="8:8" ht="14.6">
       <c r="H362" s="10"/>
     </row>
-    <row r="363" spans="8:8" ht="14.4">
+    <row r="363" spans="8:8" ht="14.6">
       <c r="H363" s="10"/>
     </row>
-    <row r="364" spans="8:8" ht="14.4">
+    <row r="364" spans="8:8" ht="14.6">
       <c r="H364" s="10"/>
     </row>
-    <row r="365" spans="8:8" ht="14.4">
+    <row r="365" spans="8:8" ht="14.6">
       <c r="H365" s="10"/>
     </row>
-    <row r="366" spans="8:8" ht="14.4">
+    <row r="366" spans="8:8" ht="14.6">
       <c r="H366" s="10"/>
     </row>
-    <row r="367" spans="8:8" ht="14.4">
+    <row r="367" spans="8:8" ht="14.6">
       <c r="H367" s="10"/>
     </row>
-    <row r="368" spans="8:8" ht="14.4">
+    <row r="368" spans="8:8" ht="14.6">
       <c r="H368" s="10"/>
     </row>
-    <row r="369" spans="8:8" ht="14.4">
+    <row r="369" spans="8:8" ht="14.6">
       <c r="H369" s="10"/>
     </row>
-    <row r="370" spans="8:8" ht="14.4">
+    <row r="370" spans="8:8" ht="14.6">
       <c r="H370" s="10"/>
     </row>
-    <row r="371" spans="8:8" ht="14.4">
+    <row r="371" spans="8:8" ht="14.6">
       <c r="H371" s="10"/>
     </row>
-    <row r="372" spans="8:8" ht="14.4">
+    <row r="372" spans="8:8" ht="14.6">
       <c r="H372" s="10"/>
     </row>
-    <row r="373" spans="8:8" ht="14.4">
+    <row r="373" spans="8:8" ht="14.6">
       <c r="H373" s="10"/>
     </row>
-    <row r="374" spans="8:8" ht="14.4">
+    <row r="374" spans="8:8" ht="14.6">
       <c r="H374" s="10"/>
     </row>
-    <row r="375" spans="8:8" ht="14.4">
+    <row r="375" spans="8:8" ht="14.6">
       <c r="H375" s="10"/>
     </row>
-    <row r="376" spans="8:8" ht="14.4">
+    <row r="376" spans="8:8" ht="14.6">
       <c r="H376" s="10"/>
     </row>
-    <row r="377" spans="8:8" ht="14.4">
+    <row r="377" spans="8:8" ht="14.6">
       <c r="H377" s="10"/>
     </row>
-    <row r="378" spans="8:8" ht="14.4">
+    <row r="378" spans="8:8" ht="14.6">
       <c r="H378" s="10"/>
     </row>
-    <row r="379" spans="8:8" ht="14.4">
+    <row r="379" spans="8:8" ht="14.6">
       <c r="H379" s="10"/>
     </row>
-    <row r="380" spans="8:8" ht="14.4">
+    <row r="380" spans="8:8" ht="14.6">
       <c r="H380" s="10"/>
     </row>
-    <row r="381" spans="8:8" ht="14.4">
+    <row r="381" spans="8:8" ht="14.6">
       <c r="H381" s="10"/>
     </row>
-    <row r="382" spans="8:8" ht="14.4">
+    <row r="382" spans="8:8" ht="14.6">
       <c r="H382" s="10"/>
     </row>
-    <row r="383" spans="8:8" ht="14.4">
+    <row r="383" spans="8:8" ht="14.6">
       <c r="H383" s="10"/>
     </row>
-    <row r="384" spans="8:8" ht="14.4">
+    <row r="384" spans="8:8" ht="14.6">
       <c r="H384" s="10"/>
     </row>
-    <row r="385" spans="8:8" ht="14.4">
+    <row r="385" spans="8:8" ht="14.6">
       <c r="H385" s="10"/>
     </row>
-    <row r="386" spans="8:8" ht="14.4">
+    <row r="386" spans="8:8" ht="14.6">
       <c r="H386" s="10"/>
     </row>
-    <row r="387" spans="8:8" ht="14.4">
+    <row r="387" spans="8:8" ht="14.6">
       <c r="H387" s="10"/>
     </row>
-    <row r="388" spans="8:8" ht="14.4">
+    <row r="388" spans="8:8" ht="14.6">
       <c r="H388" s="10"/>
     </row>
-    <row r="389" spans="8:8" ht="14.4">
+    <row r="389" spans="8:8" ht="14.6">
       <c r="H389" s="10"/>
     </row>
-    <row r="390" spans="8:8" ht="14.4">
+    <row r="390" spans="8:8" ht="14.6">
       <c r="H390" s="10"/>
     </row>
-    <row r="391" spans="8:8" ht="14.4">
+    <row r="391" spans="8:8" ht="14.6">
       <c r="H391" s="10"/>
     </row>
-    <row r="392" spans="8:8" ht="14.4">
+    <row r="392" spans="8:8" ht="14.6">
       <c r="H392" s="10"/>
     </row>
-    <row r="393" spans="8:8" ht="14.4">
+    <row r="393" spans="8:8" ht="14.6">
       <c r="H393" s="10"/>
     </row>
-    <row r="394" spans="8:8" ht="14.4">
+    <row r="394" spans="8:8" ht="14.6">
       <c r="H394" s="10"/>
     </row>
-    <row r="395" spans="8:8" ht="14.4">
+    <row r="395" spans="8:8" ht="14.6">
       <c r="H395" s="10"/>
     </row>
-    <row r="396" spans="8:8" ht="14.4">
+    <row r="396" spans="8:8" ht="14.6">
       <c r="H396" s="10"/>
     </row>
-    <row r="397" spans="8:8" ht="14.4">
+    <row r="397" spans="8:8" ht="14.6">
       <c r="H397" s="10"/>
     </row>
-    <row r="398" spans="8:8" ht="14.4">
+    <row r="398" spans="8:8" ht="14.6">
       <c r="H398" s="10"/>
     </row>
-    <row r="399" spans="8:8" ht="14.4">
+    <row r="399" spans="8:8" ht="14.6">
       <c r="H399" s="10"/>
     </row>
-    <row r="400" spans="8:8" ht="14.4">
+    <row r="400" spans="8:8" ht="14.6">
       <c r="H400" s="10"/>
     </row>
-    <row r="401" spans="8:8" ht="14.4">
+    <row r="401" spans="8:8" ht="14.6">
       <c r="H401" s="10"/>
     </row>
-    <row r="402" spans="8:8" ht="14.4">
+    <row r="402" spans="8:8" ht="14.6">
       <c r="H402" s="10"/>
     </row>
-    <row r="403" spans="8:8" ht="14.4">
+    <row r="403" spans="8:8" ht="14.6">
       <c r="H403" s="10"/>
     </row>
-    <row r="404" spans="8:8" ht="14.4">
+    <row r="404" spans="8:8" ht="14.6">
       <c r="H404" s="10"/>
     </row>
-    <row r="405" spans="8:8" ht="14.4">
+    <row r="405" spans="8:8" ht="14.6">
       <c r="H405" s="10"/>
     </row>
-    <row r="406" spans="8:8" ht="14.4">
+    <row r="406" spans="8:8" ht="14.6">
       <c r="H406" s="10"/>
     </row>
-    <row r="407" spans="8:8" ht="14.4">
+    <row r="407" spans="8:8" ht="14.6">
       <c r="H407" s="10"/>
     </row>
-    <row r="408" spans="8:8" ht="14.4">
+    <row r="408" spans="8:8" ht="14.6">
       <c r="H408" s="10"/>
     </row>
-    <row r="409" spans="8:8" ht="14.4">
+    <row r="409" spans="8:8" ht="14.6">
       <c r="H409" s="10"/>
     </row>
-    <row r="410" spans="8:8" ht="14.4">
+    <row r="410" spans="8:8" ht="14.6">
       <c r="H410" s="10"/>
     </row>
-    <row r="411" spans="8:8" ht="14.4">
+    <row r="411" spans="8:8" ht="14.6">
       <c r="H411" s="10"/>
     </row>
-    <row r="412" spans="8:8" ht="14.4">
+    <row r="412" spans="8:8" ht="14.6">
       <c r="H412" s="10"/>
     </row>
-    <row r="413" spans="8:8" ht="14.4">
+    <row r="413" spans="8:8" ht="14.6">
       <c r="H413" s="10"/>
     </row>
-    <row r="414" spans="8:8" ht="14.4">
+    <row r="414" spans="8:8" ht="14.6">
       <c r="H414" s="10"/>
     </row>
-    <row r="415" spans="8:8" ht="14.4">
+    <row r="415" spans="8:8" ht="14.6">
       <c r="H415" s="10"/>
     </row>
-    <row r="416" spans="8:8" ht="14.4">
+    <row r="416" spans="8:8" ht="14.6">
       <c r="H416" s="10"/>
     </row>
-    <row r="417" spans="8:8" ht="14.4">
+    <row r="417" spans="8:8" ht="14.6">
       <c r="H417" s="10"/>
     </row>
-    <row r="418" spans="8:8" ht="14.4">
+    <row r="418" spans="8:8" ht="14.6">
       <c r="H418" s="10"/>
     </row>
-    <row r="419" spans="8:8" ht="14.4">
+    <row r="419" spans="8:8" ht="14.6">
       <c r="H419" s="10"/>
     </row>
-    <row r="420" spans="8:8" ht="14.4">
+    <row r="420" spans="8:8" ht="14.6">
       <c r="H420" s="10"/>
     </row>
-    <row r="421" spans="8:8" ht="14.4">
+    <row r="421" spans="8:8" ht="14.6">
       <c r="H421" s="10"/>
     </row>
-    <row r="422" spans="8:8" ht="14.4">
+    <row r="422" spans="8:8" ht="14.6">
       <c r="H422" s="10"/>
     </row>
-    <row r="423" spans="8:8" ht="14.4">
+    <row r="423" spans="8:8" ht="14.6">
       <c r="H423" s="10"/>
     </row>
-    <row r="424" spans="8:8" ht="14.4">
+    <row r="424" spans="8:8" ht="14.6">
       <c r="H424" s="10"/>
     </row>
-    <row r="425" spans="8:8" ht="14.4">
+    <row r="425" spans="8:8" ht="14.6">
       <c r="H425" s="10"/>
     </row>
-    <row r="426" spans="8:8" ht="14.4">
+    <row r="426" spans="8:8" ht="14.6">
       <c r="H426" s="10"/>
     </row>
-    <row r="427" spans="8:8" ht="14.4">
+    <row r="427" spans="8:8" ht="14.6">
       <c r="H427" s="10"/>
     </row>
-    <row r="428" spans="8:8" ht="14.4">
+    <row r="428" spans="8:8" ht="14.6">
       <c r="H428" s="10"/>
     </row>
-    <row r="429" spans="8:8" ht="14.4">
+    <row r="429" spans="8:8" ht="14.6">
       <c r="H429" s="10"/>
     </row>
-    <row r="430" spans="8:8" ht="14.4">
+    <row r="430" spans="8:8" ht="14.6">
       <c r="H430" s="10"/>
     </row>
-    <row r="431" spans="8:8" ht="14.4">
+    <row r="431" spans="8:8" ht="14.6">
       <c r="H431" s="10"/>
     </row>
-    <row r="432" spans="8:8" ht="14.4">
+    <row r="432" spans="8:8" ht="14.6">
       <c r="H432" s="10"/>
     </row>
-    <row r="433" spans="8:8" ht="14.4">
+    <row r="433" spans="8:8" ht="14.6">
       <c r="H433" s="10"/>
     </row>
-    <row r="434" spans="8:8" ht="14.4">
+    <row r="434" spans="8:8" ht="14.6">
       <c r="H434" s="10"/>
     </row>
-    <row r="435" spans="8:8" ht="14.4">
+    <row r="435" spans="8:8" ht="14.6">
       <c r="H435" s="10"/>
     </row>
-    <row r="436" spans="8:8" ht="14.4">
+    <row r="436" spans="8:8" ht="14.6">
       <c r="H436" s="10"/>
     </row>
-    <row r="437" spans="8:8" ht="14.4">
+    <row r="437" spans="8:8" ht="14.6">
       <c r="H437" s="10"/>
     </row>
-    <row r="438" spans="8:8" ht="14.4">
+    <row r="438" spans="8:8" ht="14.6">
       <c r="H438" s="10"/>
     </row>
-    <row r="439" spans="8:8" ht="14.4">
+    <row r="439" spans="8:8" ht="14.6">
       <c r="H439" s="10"/>
     </row>
-    <row r="440" spans="8:8" ht="14.4">
+    <row r="440" spans="8:8" ht="14.6">
       <c r="H440" s="10"/>
     </row>
-    <row r="441" spans="8:8" ht="14.4">
+    <row r="441" spans="8:8" ht="14.6">
       <c r="H441" s="10"/>
     </row>
-    <row r="442" spans="8:8" ht="14.4">
+    <row r="442" spans="8:8" ht="14.6">
       <c r="H442" s="10"/>
     </row>
-    <row r="443" spans="8:8" ht="14.4">
+    <row r="443" spans="8:8" ht="14.6">
       <c r="H443" s="10"/>
     </row>
-    <row r="444" spans="8:8" ht="14.4">
+    <row r="444" spans="8:8" ht="14.6">
       <c r="H444" s="10"/>
     </row>
-    <row r="445" spans="8:8" ht="14.4">
+    <row r="445" spans="8:8" ht="14.6">
       <c r="H445" s="10"/>
     </row>
-    <row r="446" spans="8:8" ht="14.4">
+    <row r="446" spans="8:8" ht="14.6">
       <c r="H446" s="10"/>
     </row>
-    <row r="447" spans="8:8" ht="14.4">
+    <row r="447" spans="8:8" ht="14.6">
       <c r="H447" s="10"/>
     </row>
-    <row r="448" spans="8:8" ht="14.4">
+    <row r="448" spans="8:8" ht="14.6">
       <c r="H448" s="10"/>
     </row>
-    <row r="449" spans="8:8" ht="14.4">
+    <row r="449" spans="8:8" ht="14.6">
       <c r="H449" s="10"/>
     </row>
-    <row r="450" spans="8:8" ht="14.4">
+    <row r="450" spans="8:8" ht="14.6">
       <c r="H450" s="10"/>
     </row>
-    <row r="451" spans="8:8" ht="14.4">
+    <row r="451" spans="8:8" ht="14.6">
       <c r="H451" s="10"/>
     </row>
-    <row r="452" spans="8:8" ht="14.4">
+    <row r="452" spans="8:8" ht="14.6">
       <c r="H452" s="10"/>
     </row>
-    <row r="453" spans="8:8" ht="14.4">
+    <row r="453" spans="8:8" ht="14.6">
       <c r="H453" s="10"/>
     </row>
-    <row r="454" spans="8:8" ht="14.4">
+    <row r="454" spans="8:8" ht="14.6">
       <c r="H454" s="10"/>
     </row>
-    <row r="455" spans="8:8" ht="14.4">
+    <row r="455" spans="8:8" ht="14.6">
       <c r="H455" s="10"/>
     </row>
-    <row r="456" spans="8:8" ht="14.4">
+    <row r="456" spans="8:8" ht="14.6">
       <c r="H456" s="10"/>
     </row>
-    <row r="457" spans="8:8" ht="14.4">
+    <row r="457" spans="8:8" ht="14.6">
       <c r="H457" s="10"/>
     </row>
-    <row r="458" spans="8:8" ht="14.4">
+    <row r="458" spans="8:8" ht="14.6">
       <c r="H458" s="10"/>
     </row>
-    <row r="459" spans="8:8" ht="14.4">
+    <row r="459" spans="8:8" ht="14.6">
       <c r="H459" s="10"/>
     </row>
-    <row r="460" spans="8:8" ht="14.4">
+    <row r="460" spans="8:8" ht="14.6">
       <c r="H460" s="10"/>
     </row>
-    <row r="461" spans="8:8" ht="14.4">
+    <row r="461" spans="8:8" ht="14.6">
       <c r="H461" s="10"/>
     </row>
-    <row r="462" spans="8:8" ht="14.4">
+    <row r="462" spans="8:8" ht="14.6">
       <c r="H462" s="10"/>
     </row>
-    <row r="463" spans="8:8" ht="14.4">
+    <row r="463" spans="8:8" ht="14.6">
       <c r="H463" s="10"/>
     </row>
-    <row r="464" spans="8:8" ht="14.4">
+    <row r="464" spans="8:8" ht="14.6">
       <c r="H464" s="10"/>
     </row>
-    <row r="465" spans="8:8" ht="14.4">
+    <row r="465" spans="8:8" ht="14.6">
       <c r="H465" s="10"/>
     </row>
-    <row r="466" spans="8:8" ht="14.4">
+    <row r="466" spans="8:8" ht="14.6">
       <c r="H466" s="10"/>
     </row>
-    <row r="467" spans="8:8" ht="14.4">
+    <row r="467" spans="8:8" ht="14.6">
       <c r="H467" s="10"/>
     </row>
-    <row r="468" spans="8:8" ht="14.4">
+    <row r="468" spans="8:8" ht="14.6">
       <c r="H468" s="10"/>
     </row>
-    <row r="469" spans="8:8" ht="14.4">
+    <row r="469" spans="8:8" ht="14.6">
       <c r="H469" s="10"/>
     </row>
-    <row r="470" spans="8:8" ht="14.4">
+    <row r="470" spans="8:8" ht="14.6">
       <c r="H470" s="10"/>
     </row>
-    <row r="471" spans="8:8" ht="14.4">
+    <row r="471" spans="8:8" ht="14.6">
       <c r="H471" s="10"/>
     </row>
-    <row r="472" spans="8:8" ht="14.4">
+    <row r="472" spans="8:8" ht="14.6">
       <c r="H472" s="10"/>
     </row>
-    <row r="473" spans="8:8" ht="14.4">
+    <row r="473" spans="8:8" ht="14.6">
       <c r="H473" s="10"/>
     </row>
-    <row r="474" spans="8:8" ht="14.4">
+    <row r="474" spans="8:8" ht="14.6">
       <c r="H474" s="10"/>
     </row>
-    <row r="475" spans="8:8" ht="14.4">
+    <row r="475" spans="8:8" ht="14.6">
       <c r="H475" s="10"/>
     </row>
-    <row r="476" spans="8:8" ht="14.4">
+    <row r="476" spans="8:8" ht="14.6">
       <c r="H476" s="10"/>
     </row>
-    <row r="477" spans="8:8" ht="14.4">
+    <row r="477" spans="8:8" ht="14.6">
       <c r="H477" s="10"/>
     </row>
-    <row r="478" spans="8:8" ht="14.4">
+    <row r="478" spans="8:8" ht="14.6">
       <c r="H478" s="10"/>
     </row>
-    <row r="479" spans="8:8" ht="14.4">
+    <row r="479" spans="8:8" ht="14.6">
       <c r="H479" s="10"/>
     </row>
-    <row r="480" spans="8:8" ht="14.4">
+    <row r="480" spans="8:8" ht="14.6">
       <c r="H480" s="10"/>
     </row>
-    <row r="481" spans="8:8" ht="14.4">
+    <row r="481" spans="8:8" ht="14.6">
       <c r="H481" s="10"/>
     </row>
-    <row r="482" spans="8:8" ht="14.4">
+    <row r="482" spans="8:8" ht="14.6">
       <c r="H482" s="10"/>
     </row>
-    <row r="483" spans="8:8" ht="14.4">
+    <row r="483" spans="8:8" ht="14.6">
       <c r="H483" s="10"/>
     </row>
-    <row r="484" spans="8:8" ht="14.4">
+    <row r="484" spans="8:8" ht="14.6">
       <c r="H484" s="10"/>
     </row>
-    <row r="485" spans="8:8" ht="14.4">
+    <row r="485" spans="8:8" ht="14.6">
       <c r="H485" s="10"/>
     </row>
-    <row r="486" spans="8:8" ht="14.4">
+    <row r="486" spans="8:8" ht="14.6">
       <c r="H486" s="10"/>
     </row>
-    <row r="487" spans="8:8" ht="14.4">
+    <row r="487" spans="8:8" ht="14.6">
       <c r="H487" s="10"/>
     </row>
-    <row r="488" spans="8:8" ht="14.4">
+    <row r="488" spans="8:8" ht="14.6">
       <c r="H488" s="10"/>
     </row>
-    <row r="489" spans="8:8" ht="14.4">
+    <row r="489" spans="8:8" ht="14.6">
       <c r="H489" s="10"/>
     </row>
-    <row r="490" spans="8:8" ht="14.4">
+    <row r="490" spans="8:8" ht="14.6">
       <c r="H490" s="10"/>
     </row>
-    <row r="491" spans="8:8" ht="14.4">
+    <row r="491" spans="8:8" ht="14.6">
       <c r="H491" s="10"/>
     </row>
-    <row r="492" spans="8:8" ht="14.4">
+    <row r="492" spans="8:8" ht="14.6">
       <c r="H492" s="10"/>
     </row>
-    <row r="493" spans="8:8" ht="14.4">
+    <row r="493" spans="8:8" ht="14.6">
       <c r="H493" s="10"/>
     </row>
-    <row r="494" spans="8:8" ht="14.4">
+    <row r="494" spans="8:8" ht="14.6">
       <c r="H494" s="10"/>
     </row>
-    <row r="495" spans="8:8" ht="14.4">
+    <row r="495" spans="8:8" ht="14.6">
       <c r="H495" s="10"/>
     </row>
-    <row r="496" spans="8:8" ht="14.4">
+    <row r="496" spans="8:8" ht="14.6">
       <c r="H496" s="10"/>
     </row>
-    <row r="497" spans="8:8" ht="14.4">
+    <row r="497" spans="8:8" ht="14.6">
       <c r="H497" s="10"/>
     </row>
-    <row r="498" spans="8:8" ht="14.4">
+    <row r="498" spans="8:8" ht="14.6">
       <c r="H498" s="10"/>
     </row>
-    <row r="499" spans="8:8" ht="14.4">
+    <row r="499" spans="8:8" ht="14.6">
       <c r="H499" s="10"/>
     </row>
-    <row r="500" spans="8:8" ht="14.4">
+    <row r="500" spans="8:8" ht="14.6">
       <c r="H500" s="10"/>
     </row>
-    <row r="501" spans="8:8" ht="14.4">
+    <row r="501" spans="8:8" ht="14.6">
       <c r="H501" s="10"/>
     </row>
-    <row r="502" spans="8:8" ht="14.4">
+    <row r="502" spans="8:8" ht="14.6">
       <c r="H502" s="10"/>
     </row>
-    <row r="503" spans="8:8" ht="14.4">
+    <row r="503" spans="8:8" ht="14.6">
       <c r="H503" s="10"/>
     </row>
-    <row r="504" spans="8:8" ht="14.4">
+    <row r="504" spans="8:8" ht="14.6">
       <c r="H504" s="10"/>
     </row>
-    <row r="505" spans="8:8" ht="14.4">
+    <row r="505" spans="8:8" ht="14.6">
       <c r="H505" s="10"/>
     </row>
-    <row r="506" spans="8:8" ht="14.4">
+    <row r="506" spans="8:8" ht="14.6">
       <c r="H506" s="10"/>
     </row>
-    <row r="507" spans="8:8" ht="14.4">
+    <row r="507" spans="8:8" ht="14.6">
       <c r="H507" s="10"/>
     </row>
-    <row r="508" spans="8:8" ht="14.4">
+    <row r="508" spans="8:8" ht="14.6">
       <c r="H508" s="10"/>
     </row>
-    <row r="509" spans="8:8" ht="14.4">
+    <row r="509" spans="8:8" ht="14.6">
       <c r="H509" s="10"/>
     </row>
-    <row r="510" spans="8:8" ht="14.4">
+    <row r="510" spans="8:8" ht="14.6">
       <c r="H510" s="10"/>
     </row>
-    <row r="511" spans="8:8" ht="14.4">
+    <row r="511" spans="8:8" ht="14.6">
       <c r="H511" s="10"/>
     </row>
-    <row r="512" spans="8:8" ht="14.4">
+    <row r="512" spans="8:8" ht="14.6">
       <c r="H512" s="10"/>
     </row>
-    <row r="513" spans="8:8" ht="14.4">
+    <row r="513" spans="8:8" ht="14.6">
       <c r="H513" s="10"/>
     </row>
-    <row r="514" spans="8:8" ht="14.4">
+    <row r="514" spans="8:8" ht="14.6">
       <c r="H514" s="10"/>
     </row>
-    <row r="515" spans="8:8" ht="14.4">
+    <row r="515" spans="8:8" ht="14.6">
       <c r="H515" s="10"/>
     </row>
-    <row r="516" spans="8:8" ht="14.4">
+    <row r="516" spans="8:8" ht="14.6">
       <c r="H516" s="10"/>
     </row>
-    <row r="517" spans="8:8" ht="14.4">
+    <row r="517" spans="8:8" ht="14.6">
       <c r="H517" s="10"/>
     </row>
-    <row r="518" spans="8:8" ht="14.4">
+    <row r="518" spans="8:8" ht="14.6">
       <c r="H518" s="10"/>
     </row>
-    <row r="519" spans="8:8" ht="14.4">
+    <row r="519" spans="8:8" ht="14.6">
       <c r="H519" s="10"/>
     </row>
-    <row r="520" spans="8:8" ht="14.4">
+    <row r="520" spans="8:8" ht="14.6">
       <c r="H520" s="10"/>
     </row>
-    <row r="521" spans="8:8" ht="14.4">
+    <row r="521" spans="8:8" ht="14.6">
       <c r="H521" s="10"/>
     </row>
-    <row r="522" spans="8:8" ht="14.4">
+    <row r="522" spans="8:8" ht="14.6">
       <c r="H522" s="10"/>
     </row>
-    <row r="523" spans="8:8" ht="14.4">
+    <row r="523" spans="8:8" ht="14.6">
       <c r="H523" s="10"/>
     </row>
-    <row r="524" spans="8:8" ht="14.4">
+    <row r="524" spans="8:8" ht="14.6">
       <c r="H524" s="10"/>
     </row>
-    <row r="525" spans="8:8" ht="14.4">
+    <row r="525" spans="8:8" ht="14.6">
       <c r="H525" s="10"/>
     </row>
-    <row r="526" spans="8:8" ht="14.4">
+    <row r="526" spans="8:8" ht="14.6">
       <c r="H526" s="10"/>
     </row>
-    <row r="527" spans="8:8" ht="14.4">
+    <row r="527" spans="8:8" ht="14.6">
       <c r="H527" s="10"/>
     </row>
-    <row r="528" spans="8:8" ht="14.4">
+    <row r="528" spans="8:8" ht="14.6">
       <c r="H528" s="10"/>
     </row>
-    <row r="529" spans="8:8" ht="14.4">
+    <row r="529" spans="8:8" ht="14.6">
       <c r="H529" s="10"/>
     </row>
-    <row r="530" spans="8:8" ht="14.4">
+    <row r="530" spans="8:8" ht="14.6">
       <c r="H530" s="10"/>
     </row>
-    <row r="531" spans="8:8" ht="14.4">
+    <row r="531" spans="8:8" ht="14.6">
       <c r="H531" s="10"/>
     </row>
-    <row r="532" spans="8:8" ht="14.4">
+    <row r="532" spans="8:8" ht="14.6">
       <c r="H532" s="10"/>
     </row>
-    <row r="533" spans="8:8" ht="14.4">
+    <row r="533" spans="8:8" ht="14.6">
       <c r="H533" s="10"/>
     </row>
-    <row r="534" spans="8:8" ht="14.4">
+    <row r="534" spans="8:8" ht="14.6">
       <c r="H534" s="10"/>
     </row>
-    <row r="535" spans="8:8" ht="14.4">
+    <row r="535" spans="8:8" ht="14.6">
       <c r="H535" s="10"/>
     </row>
-    <row r="536" spans="8:8" ht="14.4">
+    <row r="536" spans="8:8" ht="14.6">
       <c r="H536" s="10"/>
     </row>
-    <row r="537" spans="8:8" ht="14.4">
+    <row r="537" spans="8:8" ht="14.6">
       <c r="H537" s="10"/>
     </row>
-    <row r="538" spans="8:8" ht="14.4">
+    <row r="538" spans="8:8" ht="14.6">
       <c r="H538" s="10"/>
     </row>
-    <row r="539" spans="8:8" ht="14.4">
+    <row r="539" spans="8:8" ht="14.6">
       <c r="H539" s="10"/>
     </row>
-    <row r="540" spans="8:8" ht="14.4">
+    <row r="540" spans="8:8" ht="14.6">
       <c r="H540" s="10"/>
     </row>
-    <row r="541" spans="8:8" ht="14.4">
+    <row r="541" spans="8:8" ht="14.6">
       <c r="H541" s="10"/>
     </row>
-    <row r="542" spans="8:8" ht="14.4">
+    <row r="542" spans="8:8" ht="14.6">
       <c r="H542" s="10"/>
     </row>
-    <row r="543" spans="8:8" ht="14.4">
+    <row r="543" spans="8:8" ht="14.6">
       <c r="H543" s="10"/>
     </row>
-    <row r="544" spans="8:8" ht="14.4">
+    <row r="544" spans="8:8" ht="14.6">
       <c r="H544" s="10"/>
     </row>
-    <row r="545" spans="8:8" ht="14.4">
+    <row r="545" spans="8:8" ht="14.6">
       <c r="H545" s="10"/>
     </row>
-    <row r="546" spans="8:8" ht="14.4">
+    <row r="546" spans="8:8" ht="14.6">
       <c r="H546" s="10"/>
     </row>
-    <row r="547" spans="8:8" ht="14.4">
+    <row r="547" spans="8:8" ht="14.6">
       <c r="H547" s="10"/>
     </row>
-    <row r="548" spans="8:8" ht="14.4">
+    <row r="548" spans="8:8" ht="14.6">
       <c r="H548" s="10"/>
     </row>
-    <row r="549" spans="8:8" ht="14.4">
+    <row r="549" spans="8:8" ht="14.6">
       <c r="H549" s="10"/>
     </row>
-    <row r="550" spans="8:8" ht="14.4">
+    <row r="550" spans="8:8" ht="14.6">
       <c r="H550" s="10"/>
     </row>
-    <row r="551" spans="8:8" ht="14.4">
+    <row r="551" spans="8:8" ht="14.6">
       <c r="H551" s="10"/>
     </row>
-    <row r="552" spans="8:8" ht="14.4">
+    <row r="552" spans="8:8" ht="14.6">
       <c r="H552" s="10"/>
     </row>
-    <row r="553" spans="8:8" ht="14.4">
+    <row r="553" spans="8:8" ht="14.6">
       <c r="H553" s="10"/>
     </row>
-    <row r="554" spans="8:8" ht="14.4">
+    <row r="554" spans="8:8" ht="14.6">
       <c r="H554" s="10"/>
     </row>
-    <row r="555" spans="8:8" ht="14.4">
+    <row r="555" spans="8:8" ht="14.6">
       <c r="H555" s="10"/>
     </row>
-    <row r="556" spans="8:8" ht="14.4">
+    <row r="556" spans="8:8" ht="14.6">
       <c r="H556" s="10"/>
     </row>
-    <row r="557" spans="8:8" ht="14.4">
+    <row r="557" spans="8:8" ht="14.6">
       <c r="H557" s="10"/>
     </row>
-    <row r="558" spans="8:8" ht="14.4">
+    <row r="558" spans="8:8" ht="14.6">
       <c r="H558" s="10"/>
     </row>
-    <row r="559" spans="8:8" ht="14.4">
+    <row r="559" spans="8:8" ht="14.6">
       <c r="H559" s="10"/>
     </row>
-    <row r="560" spans="8:8" ht="14.4">
+    <row r="560" spans="8:8" ht="14.6">
       <c r="H560" s="10"/>
     </row>
-    <row r="561" spans="8:8" ht="14.4">
+    <row r="561" spans="8:8" ht="14.6">
       <c r="H561" s="10"/>
     </row>
-    <row r="562" spans="8:8" ht="14.4">
+    <row r="562" spans="8:8" ht="14.6">
       <c r="H562" s="10"/>
     </row>
-    <row r="563" spans="8:8" ht="14.4">
+    <row r="563" spans="8:8" ht="14.6">
       <c r="H563" s="10"/>
     </row>
-    <row r="564" spans="8:8" ht="14.4">
+    <row r="564" spans="8:8" ht="14.6">
       <c r="H564" s="10"/>
     </row>
-    <row r="565" spans="8:8" ht="14.4">
+    <row r="565" spans="8:8" ht="14.6">
       <c r="H565" s="10"/>
     </row>
-    <row r="566" spans="8:8" ht="14.4">
+    <row r="566" spans="8:8" ht="14.6">
       <c r="H566" s="10"/>
     </row>
-    <row r="567" spans="8:8" ht="14.4">
+    <row r="567" spans="8:8" ht="14.6">
       <c r="H567" s="10"/>
     </row>
-    <row r="568" spans="8:8" ht="14.4">
+    <row r="568" spans="8:8" ht="14.6">
       <c r="H568" s="10"/>
     </row>
-    <row r="569" spans="8:8" ht="14.4">
+    <row r="569" spans="8:8" ht="14.6">
       <c r="H569" s="10"/>
     </row>
-    <row r="570" spans="8:8" ht="14.4">
+    <row r="570" spans="8:8" ht="14.6">
       <c r="H570" s="10"/>
     </row>
-    <row r="571" spans="8:8" ht="14.4">
+    <row r="571" spans="8:8" ht="14.6">
       <c r="H571" s="10"/>
     </row>
-    <row r="572" spans="8:8" ht="14.4">
+    <row r="572" spans="8:8" ht="14.6">
       <c r="H572" s="10"/>
     </row>
-    <row r="573" spans="8:8" ht="14.4">
+    <row r="573" spans="8:8" ht="14.6">
       <c r="H573" s="10"/>
     </row>
-    <row r="574" spans="8:8" ht="14.4">
+    <row r="574" spans="8:8" ht="14.6">
       <c r="H574" s="10"/>
     </row>
-    <row r="575" spans="8:8" ht="14.4">
+    <row r="575" spans="8:8" ht="14.6">
       <c r="H575" s="10"/>
     </row>
-    <row r="576" spans="8:8" ht="14.4">
+    <row r="576" spans="8:8" ht="14.6">
       <c r="H576" s="10"/>
     </row>
-    <row r="577" spans="8:8" ht="14.4">
+    <row r="577" spans="8:8" ht="14.6">
       <c r="H577" s="10"/>
     </row>
-    <row r="578" spans="8:8" ht="14.4">
+    <row r="578" spans="8:8" ht="14.6">
       <c r="H578" s="10"/>
     </row>
-    <row r="579" spans="8:8" ht="14.4">
+    <row r="579" spans="8:8" ht="14.6">
       <c r="H579" s="10"/>
     </row>
-    <row r="580" spans="8:8" ht="14.4">
+    <row r="580" spans="8:8" ht="14.6">
       <c r="H580" s="10"/>
     </row>
-    <row r="581" spans="8:8" ht="14.4">
+    <row r="581" spans="8:8" ht="14.6">
       <c r="H581" s="10"/>
     </row>
-    <row r="582" spans="8:8" ht="14.4">
+    <row r="582" spans="8:8" ht="14.6">
       <c r="H582" s="10"/>
     </row>
-    <row r="583" spans="8:8" ht="14.4">
+    <row r="583" spans="8:8" ht="14.6">
       <c r="H583" s="10"/>
     </row>
-    <row r="584" spans="8:8" ht="14.4">
+    <row r="584" spans="8:8" ht="14.6">
       <c r="H584" s="10"/>
     </row>
-    <row r="585" spans="8:8" ht="14.4">
+    <row r="585" spans="8:8" ht="14.6">
       <c r="H585" s="10"/>
     </row>
-    <row r="586" spans="8:8" ht="14.4">
+    <row r="586" spans="8:8" ht="14.6">
       <c r="H586" s="10"/>
     </row>
-    <row r="587" spans="8:8" ht="14.4">
+    <row r="587" spans="8:8" ht="14.6">
       <c r="H587" s="10"/>
     </row>
-    <row r="588" spans="8:8" ht="14.4">
+    <row r="588" spans="8:8" ht="14.6">
       <c r="H588" s="10"/>
     </row>
-    <row r="589" spans="8:8" ht="14.4">
+    <row r="589" spans="8:8" ht="14.6">
       <c r="H589" s="10"/>
     </row>
-    <row r="590" spans="8:8" ht="14.4">
+    <row r="590" spans="8:8" ht="14.6">
       <c r="H590" s="10"/>
     </row>
-    <row r="591" spans="8:8" ht="14.4">
+    <row r="591" spans="8:8" ht="14.6">
       <c r="H591" s="10"/>
     </row>
-    <row r="592" spans="8:8" ht="14.4">
+    <row r="592" spans="8:8" ht="14.6">
       <c r="H592" s="10"/>
     </row>
-    <row r="593" spans="8:8" ht="14.4">
+    <row r="593" spans="8:8" ht="14.6">
       <c r="H593" s="10"/>
     </row>
-    <row r="594" spans="8:8" ht="14.4">
+    <row r="594" spans="8:8" ht="14.6">
       <c r="H594" s="10"/>
     </row>
-    <row r="595" spans="8:8" ht="14.4">
+    <row r="595" spans="8:8" ht="14.6">
       <c r="H595" s="10"/>
     </row>
-    <row r="596" spans="8:8" ht="14.4">
+    <row r="596" spans="8:8" ht="14.6">
       <c r="H596" s="10"/>
     </row>
-    <row r="597" spans="8:8" ht="14.4">
+    <row r="597" spans="8:8" ht="14.6">
       <c r="H597" s="10"/>
     </row>
-    <row r="598" spans="8:8" ht="14.4">
+    <row r="598" spans="8:8" ht="14.6">
       <c r="H598" s="10"/>
     </row>
-    <row r="599" spans="8:8" ht="14.4">
+    <row r="599" spans="8:8" ht="14.6">
       <c r="H599" s="10"/>
     </row>
-    <row r="600" spans="8:8" ht="14.4">
+    <row r="600" spans="8:8" ht="14.6">
       <c r="H600" s="10"/>
     </row>
-    <row r="601" spans="8:8" ht="14.4">
+    <row r="601" spans="8:8" ht="14.6">
       <c r="H601" s="10"/>
     </row>
-    <row r="602" spans="8:8" ht="14.4">
+    <row r="602" spans="8:8" ht="14.6">
       <c r="H602" s="10"/>
     </row>
-    <row r="603" spans="8:8" ht="14.4">
+    <row r="603" spans="8:8" ht="14.6">
       <c r="H603" s="10"/>
     </row>
-    <row r="604" spans="8:8" ht="14.4">
+    <row r="604" spans="8:8" ht="14.6">
       <c r="H604" s="10"/>
     </row>
-    <row r="605" spans="8:8" ht="14.4">
+    <row r="605" spans="8:8" ht="14.6">
       <c r="H605" s="10"/>
     </row>
-    <row r="606" spans="8:8" ht="14.4">
+    <row r="606" spans="8:8" ht="14.6">
       <c r="H606" s="10"/>
     </row>
-    <row r="607" spans="8:8" ht="14.4">
+    <row r="607" spans="8:8" ht="14.6">
       <c r="H607" s="10"/>
     </row>
-    <row r="608" spans="8:8" ht="14.4">
+    <row r="608" spans="8:8" ht="14.6">
       <c r="H608" s="10"/>
     </row>
-    <row r="609" spans="8:8" ht="14.4">
+    <row r="609" spans="8:8" ht="14.6">
       <c r="H609" s="10"/>
     </row>
-    <row r="610" spans="8:8" ht="14.4">
+    <row r="610" spans="8:8" ht="14.6">
       <c r="H610" s="10"/>
     </row>
-    <row r="611" spans="8:8" ht="14.4">
+    <row r="611" spans="8:8" ht="14.6">
       <c r="H611" s="10"/>
     </row>
-    <row r="612" spans="8:8" ht="14.4">
+    <row r="612" spans="8:8" ht="14.6">
       <c r="H612" s="10"/>
     </row>
-    <row r="613" spans="8:8" ht="14.4">
+    <row r="613" spans="8:8" ht="14.6">
       <c r="H613" s="10"/>
     </row>
-    <row r="614" spans="8:8" ht="14.4">
+    <row r="614" spans="8:8" ht="14.6">
       <c r="H614" s="10"/>
     </row>
-    <row r="615" spans="8:8" ht="14.4">
+    <row r="615" spans="8:8" ht="14.6">
       <c r="H615" s="10"/>
     </row>
-    <row r="616" spans="8:8" ht="14.4">
+    <row r="616" spans="8:8" ht="14.6">
       <c r="H616" s="10"/>
     </row>
-    <row r="617" spans="8:8" ht="14.4">
+    <row r="617" spans="8:8" ht="14.6">
       <c r="H617" s="10"/>
     </row>
-    <row r="618" spans="8:8" ht="14.4">
+    <row r="618" spans="8:8" ht="14.6">
       <c r="H618" s="10"/>
     </row>
-    <row r="619" spans="8:8" ht="14.4">
+    <row r="619" spans="8:8" ht="14.6">
       <c r="H619" s="10"/>
     </row>
-    <row r="620" spans="8:8" ht="14.4">
+    <row r="620" spans="8:8" ht="14.6">
       <c r="H620" s="10"/>
     </row>
-    <row r="621" spans="8:8" ht="14.4">
+    <row r="621" spans="8:8" ht="14.6">
       <c r="H621" s="10"/>
     </row>
-    <row r="622" spans="8:8" ht="14.4">
+    <row r="622" spans="8:8" ht="14.6">
       <c r="H622" s="10"/>
     </row>
-    <row r="623" spans="8:8" ht="14.4">
+    <row r="623" spans="8:8" ht="14.6">
       <c r="H623" s="10"/>
     </row>
-    <row r="624" spans="8:8" ht="14.4">
+    <row r="624" spans="8:8" ht="14.6">
       <c r="H624" s="10"/>
     </row>
-    <row r="625" spans="8:8" ht="14.4">
+    <row r="625" spans="8:8" ht="14.6">
       <c r="H625" s="10"/>
     </row>
-    <row r="626" spans="8:8" ht="14.4">
+    <row r="626" spans="8:8" ht="14.6">
       <c r="H626" s="10"/>
     </row>
-    <row r="627" spans="8:8" ht="14.4">
+    <row r="627" spans="8:8" ht="14.6">
       <c r="H627" s="10"/>
     </row>
-    <row r="628" spans="8:8" ht="14.4">
+    <row r="628" spans="8:8" ht="14.6">
       <c r="H628" s="10"/>
     </row>
-    <row r="629" spans="8:8" ht="14.4">
+    <row r="629" spans="8:8" ht="14.6">
       <c r="H629" s="10"/>
     </row>
-    <row r="630" spans="8:8" ht="14.4">
+    <row r="630" spans="8:8" ht="14.6">
       <c r="H630" s="10"/>
     </row>
-    <row r="631" spans="8:8" ht="14.4">
+    <row r="631" spans="8:8" ht="14.6">
       <c r="H631" s="10"/>
     </row>
-    <row r="632" spans="8:8" ht="14.4">
+    <row r="632" spans="8:8" ht="14.6">
       <c r="H632" s="10"/>
     </row>
-    <row r="633" spans="8:8" ht="14.4">
+    <row r="633" spans="8:8" ht="14.6">
       <c r="H633" s="10"/>
     </row>
-    <row r="634" spans="8:8" ht="14.4">
+    <row r="634" spans="8:8" ht="14.6">
       <c r="H634" s="10"/>
     </row>
-    <row r="635" spans="8:8" ht="14.4">
+    <row r="635" spans="8:8" ht="14.6">
       <c r="H635" s="10"/>
     </row>
-    <row r="636" spans="8:8" ht="14.4">
+    <row r="636" spans="8:8" ht="14.6">
       <c r="H636" s="10"/>
     </row>
-    <row r="637" spans="8:8" ht="14.4">
+    <row r="637" spans="8:8" ht="14.6">
       <c r="H637" s="10"/>
     </row>
-    <row r="638" spans="8:8" ht="14.4">
+    <row r="638" spans="8:8" ht="14.6">
       <c r="H638" s="10"/>
     </row>
-    <row r="639" spans="8:8" ht="14.4">
+    <row r="639" spans="8:8" ht="14.6">
       <c r="H639" s="10"/>
     </row>
-    <row r="640" spans="8:8" ht="14.4">
+    <row r="640" spans="8:8" ht="14.6">
       <c r="H640" s="10"/>
     </row>
-    <row r="641" spans="8:8" ht="14.4">
+    <row r="641" spans="8:8" ht="14.6">
       <c r="H641" s="10"/>
     </row>
-    <row r="642" spans="8:8" ht="14.4">
+    <row r="642" spans="8:8" ht="14.6">
       <c r="H642" s="10"/>
     </row>
-    <row r="643" spans="8:8" ht="14.4">
+    <row r="643" spans="8:8" ht="14.6">
       <c r="H643" s="10"/>
     </row>
-    <row r="644" spans="8:8" ht="14.4">
+    <row r="644" spans="8:8" ht="14.6">
       <c r="H644" s="10"/>
     </row>
-    <row r="645" spans="8:8" ht="14.4">
+    <row r="645" spans="8:8" ht="14.6">
       <c r="H645" s="10"/>
     </row>
-    <row r="646" spans="8:8" ht="14.4">
+    <row r="646" spans="8:8" ht="14.6">
       <c r="H646" s="10"/>
     </row>
-    <row r="647" spans="8:8" ht="14.4">
+    <row r="647" spans="8:8" ht="14.6">
       <c r="H647" s="10"/>
     </row>
-    <row r="648" spans="8:8" ht="14.4">
+    <row r="648" spans="8:8" ht="14.6">
       <c r="H648" s="10"/>
     </row>
-    <row r="649" spans="8:8" ht="14.4">
+    <row r="649" spans="8:8" ht="14.6">
       <c r="H649" s="10"/>
     </row>
-    <row r="650" spans="8:8" ht="14.4">
+    <row r="650" spans="8:8" ht="14.6">
       <c r="H650" s="10"/>
     </row>
-    <row r="651" spans="8:8" ht="14.4">
+    <row r="651" spans="8:8" ht="14.6">
       <c r="H651" s="10"/>
     </row>
-    <row r="652" spans="8:8" ht="14.4">
+    <row r="652" spans="8:8" ht="14.6">
       <c r="H652" s="10"/>
     </row>
-    <row r="653" spans="8:8" ht="14.4">
+    <row r="653" spans="8:8" ht="14.6">
       <c r="H653" s="10"/>
     </row>
-    <row r="654" spans="8:8" ht="14.4">
+    <row r="654" spans="8:8" ht="14.6">
       <c r="H654" s="10"/>
     </row>
-    <row r="655" spans="8:8" ht="14.4">
+    <row r="655" spans="8:8" ht="14.6">
       <c r="H655" s="10"/>
     </row>
-    <row r="656" spans="8:8" ht="14.4">
+    <row r="656" spans="8:8" ht="14.6">
       <c r="H656" s="10"/>
     </row>
-    <row r="657" spans="8:8" ht="14.4">
+    <row r="657" spans="8:8" ht="14.6">
       <c r="H657" s="10"/>
     </row>
-    <row r="658" spans="8:8" ht="14.4">
+    <row r="658" spans="8:8" ht="14.6">
       <c r="H658" s="10"/>
     </row>
-    <row r="659" spans="8:8" ht="14.4">
+    <row r="659" spans="8:8" ht="14.6">
       <c r="H659" s="10"/>
     </row>
-    <row r="660" spans="8:8" ht="14.4">
+    <row r="660" spans="8:8" ht="14.6">
       <c r="H660" s="10"/>
     </row>
-    <row r="661" spans="8:8" ht="14.4">
+    <row r="661" spans="8:8" ht="14.6">
       <c r="H661" s="10"/>
     </row>
-    <row r="662" spans="8:8" ht="14.4">
+    <row r="662" spans="8:8" ht="14.6">
       <c r="H662" s="10"/>
     </row>
-    <row r="663" spans="8:8" ht="14.4">
+    <row r="663" spans="8:8" ht="14.6">
       <c r="H663" s="10"/>
     </row>
-    <row r="664" spans="8:8" ht="14.4">
+    <row r="664" spans="8:8" ht="14.6">
       <c r="H664" s="10"/>
     </row>
-    <row r="665" spans="8:8" ht="14.4">
+    <row r="665" spans="8:8" ht="14.6">
       <c r="H665" s="10"/>
     </row>
-    <row r="666" spans="8:8" ht="14.4">
+    <row r="666" spans="8:8" ht="14.6">
       <c r="H666" s="10"/>
     </row>
-    <row r="667" spans="8:8" ht="14.4">
+    <row r="667" spans="8:8" ht="14.6">
       <c r="H667" s="10"/>
     </row>
-    <row r="668" spans="8:8" ht="14.4">
+    <row r="668" spans="8:8" ht="14.6">
       <c r="H668" s="10"/>
     </row>
-    <row r="669" spans="8:8" ht="14.4">
+    <row r="669" spans="8:8" ht="14.6">
       <c r="H669" s="10"/>
     </row>
-    <row r="670" spans="8:8" ht="14.4">
+    <row r="670" spans="8:8" ht="14.6">
       <c r="H670" s="10"/>
     </row>
-    <row r="671" spans="8:8" ht="14.4">
+    <row r="671" spans="8:8" ht="14.6">
       <c r="H671" s="10"/>
     </row>
-    <row r="672" spans="8:8" ht="14.4">
+    <row r="672" spans="8:8" ht="14.6">
       <c r="H672" s="10"/>
     </row>
-    <row r="673" spans="8:8" ht="14.4">
+    <row r="673" spans="8:8" ht="14.6">
       <c r="H673" s="10"/>
     </row>
-    <row r="674" spans="8:8" ht="14.4">
+    <row r="674" spans="8:8" ht="14.6">
       <c r="H674" s="10"/>
     </row>
-    <row r="675" spans="8:8" ht="14.4">
+    <row r="675" spans="8:8" ht="14.6">
       <c r="H675" s="10"/>
     </row>
-    <row r="676" spans="8:8" ht="14.4">
+    <row r="676" spans="8:8" ht="14.6">
       <c r="H676" s="10"/>
     </row>
-    <row r="677" spans="8:8" ht="14.4">
+    <row r="677" spans="8:8" ht="14.6">
       <c r="H677" s="10"/>
     </row>
-    <row r="678" spans="8:8" ht="14.4">
+    <row r="678" spans="8:8" ht="14.6">
       <c r="H678" s="10"/>
     </row>
-    <row r="679" spans="8:8" ht="14.4">
+    <row r="679" spans="8:8" ht="14.6">
       <c r="H679" s="10"/>
     </row>
-    <row r="680" spans="8:8" ht="14.4">
+    <row r="680" spans="8:8" ht="14.6">
       <c r="H680" s="10"/>
     </row>
-    <row r="681" spans="8:8" ht="14.4">
+    <row r="681" spans="8:8" ht="14.6">
       <c r="H681" s="10"/>
     </row>
-    <row r="682" spans="8:8" ht="14.4">
+    <row r="682" spans="8:8" ht="14.6">
       <c r="H682" s="10"/>
     </row>
-    <row r="683" spans="8:8" ht="14.4">
+    <row r="683" spans="8:8" ht="14.6">
       <c r="H683" s="10"/>
     </row>
-    <row r="684" spans="8:8" ht="14.4">
+    <row r="684" spans="8:8" ht="14.6">
       <c r="H684" s="10"/>
     </row>
-    <row r="685" spans="8:8" ht="14.4">
+    <row r="685" spans="8:8" ht="14.6">
       <c r="H685" s="10"/>
     </row>
-    <row r="686" spans="8:8" ht="14.4">
+    <row r="686" spans="8:8" ht="14.6">
       <c r="H686" s="10"/>
     </row>
-    <row r="687" spans="8:8" ht="14.4">
+    <row r="687" spans="8:8" ht="14.6">
       <c r="H687" s="10"/>
     </row>
-    <row r="688" spans="8:8" ht="14.4">
+    <row r="688" spans="8:8" ht="14.6">
       <c r="H688" s="10"/>
     </row>
-    <row r="689" spans="8:8" ht="14.4">
+    <row r="689" spans="8:8" ht="14.6">
       <c r="H689" s="10"/>
     </row>
-    <row r="690" spans="8:8" ht="14.4">
+    <row r="690" spans="8:8" ht="14.6">
       <c r="H690" s="10"/>
     </row>
-    <row r="691" spans="8:8" ht="14.4">
+    <row r="691" spans="8:8" ht="14.6">
       <c r="H691" s="10"/>
     </row>
-    <row r="692" spans="8:8" ht="14.4">
+    <row r="692" spans="8:8" ht="14.6">
       <c r="H692" s="10"/>
     </row>
-    <row r="693" spans="8:8" ht="14.4">
+    <row r="693" spans="8:8" ht="14.6">
       <c r="H693" s="10"/>
     </row>
-    <row r="694" spans="8:8" ht="14.4">
+    <row r="694" spans="8:8" ht="14.6">
       <c r="H694" s="10"/>
     </row>
-    <row r="695" spans="8:8" ht="14.4">
+    <row r="695" spans="8:8" ht="14.6">
       <c r="H695" s="10"/>
     </row>
-    <row r="696" spans="8:8" ht="14.4">
+    <row r="696" spans="8:8" ht="14.6">
       <c r="H696" s="10"/>
     </row>
-    <row r="697" spans="8:8" ht="14.4">
+    <row r="697" spans="8:8" ht="14.6">
       <c r="H697" s="10"/>
     </row>
-    <row r="698" spans="8:8" ht="14.4">
+    <row r="698" spans="8:8" ht="14.6">
       <c r="H698" s="10"/>
     </row>
-    <row r="699" spans="8:8" ht="14.4">
+    <row r="699" spans="8:8" ht="14.6">
       <c r="H699" s="10"/>
     </row>
-    <row r="700" spans="8:8" ht="14.4">
+    <row r="700" spans="8:8" ht="14.6">
       <c r="H700" s="10"/>
     </row>
-    <row r="701" spans="8:8" ht="14.4">
+    <row r="701" spans="8:8" ht="14.6">
       <c r="H701" s="10"/>
     </row>
-    <row r="702" spans="8:8" ht="14.4">
+    <row r="702" spans="8:8" ht="14.6">
       <c r="H702" s="10"/>
     </row>
-    <row r="703" spans="8:8" ht="14.4">
+    <row r="703" spans="8:8" ht="14.6">
       <c r="H703" s="10"/>
     </row>
-    <row r="704" spans="8:8" ht="14.4">
+    <row r="704" spans="8:8" ht="14.6">
       <c r="H704" s="10"/>
     </row>
-    <row r="705" spans="8:8" ht="14.4">
+    <row r="705" spans="8:8" ht="14.6">
       <c r="H705" s="10"/>
     </row>
-    <row r="706" spans="8:8" ht="14.4">
+    <row r="706" spans="8:8" ht="14.6">
       <c r="H706" s="10"/>
     </row>
-    <row r="707" spans="8:8" ht="14.4">
+    <row r="707" spans="8:8" ht="14.6">
       <c r="H707" s="10"/>
     </row>
-    <row r="708" spans="8:8" ht="14.4">
+    <row r="708" spans="8:8" ht="14.6">
       <c r="H708" s="10"/>
     </row>
-    <row r="709" spans="8:8" ht="14.4">
+    <row r="709" spans="8:8" ht="14.6">
       <c r="H709" s="10"/>
     </row>
-    <row r="710" spans="8:8" ht="14.4">
+    <row r="710" spans="8:8" ht="14.6">
       <c r="H710" s="10"/>
     </row>
-    <row r="711" spans="8:8" ht="14.4">
+    <row r="711" spans="8:8" ht="14.6">
       <c r="H711" s="10"/>
     </row>
-    <row r="712" spans="8:8" ht="14.4">
+    <row r="712" spans="8:8" ht="14.6">
       <c r="H712" s="10"/>
     </row>
-    <row r="713" spans="8:8" ht="14.4">
+    <row r="713" spans="8:8" ht="14.6">
       <c r="H713" s="10"/>
     </row>
-    <row r="714" spans="8:8" ht="14.4">
+    <row r="714" spans="8:8" ht="14.6">
       <c r="H714" s="10"/>
     </row>
-    <row r="715" spans="8:8" ht="14.4">
+    <row r="715" spans="8:8" ht="14.6">
       <c r="H715" s="10"/>
     </row>
-    <row r="716" spans="8:8" ht="14.4">
+    <row r="716" spans="8:8" ht="14.6">
       <c r="H716" s="10"/>
     </row>
-    <row r="717" spans="8:8" ht="14.4">
+    <row r="717" spans="8:8" ht="14.6">
       <c r="H717" s="10"/>
     </row>
-    <row r="718" spans="8:8" ht="14.4">
+    <row r="718" spans="8:8" ht="14.6">
       <c r="H718" s="10"/>
     </row>
-    <row r="719" spans="8:8" ht="14.4">
+    <row r="719" spans="8:8" ht="14.6">
       <c r="H719" s="10"/>
     </row>
-    <row r="720" spans="8:8" ht="14.4">
+    <row r="720" spans="8:8" ht="14.6">
       <c r="H720" s="10"/>
     </row>
-    <row r="721" spans="8:8" ht="14.4">
+    <row r="721" spans="8:8" ht="14.6">
       <c r="H721" s="10"/>
     </row>
-    <row r="722" spans="8:8" ht="14.4">
+    <row r="722" spans="8:8" ht="14.6">
       <c r="H722" s="10"/>
     </row>
-    <row r="723" spans="8:8" ht="14.4">
+    <row r="723" spans="8:8" ht="14.6">
       <c r="H723" s="10"/>
     </row>
-    <row r="724" spans="8:8" ht="14.4">
+    <row r="724" spans="8:8" ht="14.6">
       <c r="H724" s="10"/>
     </row>
-    <row r="725" spans="8:8" ht="14.4">
+    <row r="725" spans="8:8" ht="14.6">
       <c r="H725" s="10"/>
     </row>
-    <row r="726" spans="8:8" ht="14.4">
+    <row r="726" spans="8:8" ht="14.6">
       <c r="H726" s="10"/>
     </row>
-    <row r="727" spans="8:8" ht="14.4">
+    <row r="727" spans="8:8" ht="14.6">
       <c r="H727" s="10"/>
     </row>
-    <row r="728" spans="8:8" ht="14.4">
+    <row r="728" spans="8:8" ht="14.6">
       <c r="H728" s="10"/>
     </row>
-    <row r="729" spans="8:8" ht="14.4">
+    <row r="729" spans="8:8" ht="14.6">
       <c r="H729" s="10"/>
     </row>
-    <row r="730" spans="8:8" ht="14.4">
+    <row r="730" spans="8:8" ht="14.6">
       <c r="H730" s="10"/>
     </row>
-    <row r="731" spans="8:8" ht="14.4">
+    <row r="731" spans="8:8" ht="14.6">
       <c r="H731" s="10"/>
     </row>
-    <row r="732" spans="8:8" ht="14.4">
+    <row r="732" spans="8:8" ht="14.6">
       <c r="H732" s="10"/>
     </row>
-    <row r="733" spans="8:8" ht="14.4">
+    <row r="733" spans="8:8" ht="14.6">
       <c r="H733" s="10"/>
     </row>
-    <row r="734" spans="8:8" ht="14.4">
+    <row r="734" spans="8:8" ht="14.6">
       <c r="H734" s="10"/>
     </row>
-    <row r="735" spans="8:8" ht="14.4">
+    <row r="735" spans="8:8" ht="14.6">
       <c r="H735" s="10"/>
     </row>
-    <row r="736" spans="8:8" ht="14.4">
+    <row r="736" spans="8:8" ht="14.6">
       <c r="H736" s="10"/>
     </row>
-    <row r="737" spans="8:8" ht="14.4">
+    <row r="737" spans="8:8" ht="14.6">
       <c r="H737" s="10"/>
     </row>
-    <row r="738" spans="8:8" ht="14.4">
+    <row r="738" spans="8:8" ht="14.6">
       <c r="H738" s="10"/>
     </row>
-    <row r="739" spans="8:8" ht="14.4">
+    <row r="739" spans="8:8" ht="14.6">
       <c r="H739" s="10"/>
     </row>
-    <row r="740" spans="8:8" ht="14.4">
+    <row r="740" spans="8:8" ht="14.6">
       <c r="H740" s="10"/>
     </row>
-    <row r="741" spans="8:8" ht="14.4">
+    <row r="741" spans="8:8" ht="14.6">
       <c r="H741" s="10"/>
     </row>
-    <row r="742" spans="8:8" ht="14.4">
+    <row r="742" spans="8:8" ht="14.6">
       <c r="H742" s="10"/>
     </row>
-    <row r="743" spans="8:8" ht="14.4">
+    <row r="743" spans="8:8" ht="14.6">
       <c r="H743" s="10"/>
     </row>
-    <row r="744" spans="8:8" ht="14.4">
+    <row r="744" spans="8:8" ht="14.6">
       <c r="H744" s="10"/>
     </row>
-    <row r="745" spans="8:8" ht="14.4">
+    <row r="745" spans="8:8" ht="14.6">
       <c r="H745" s="10"/>
     </row>
-    <row r="746" spans="8:8" ht="14.4">
+    <row r="746" spans="8:8" ht="14.6">
       <c r="H746" s="10"/>
     </row>
-    <row r="747" spans="8:8" ht="14.4">
+    <row r="747" spans="8:8" ht="14.6">
       <c r="H747" s="10"/>
     </row>
-    <row r="748" spans="8:8" ht="14.4">
+    <row r="748" spans="8:8" ht="14.6">
       <c r="H748" s="10"/>
     </row>
-    <row r="749" spans="8:8" ht="14.4">
+    <row r="749" spans="8:8" ht="14.6">
       <c r="H749" s="10"/>
     </row>
-    <row r="750" spans="8:8" ht="14.4">
+    <row r="750" spans="8:8" ht="14.6">
       <c r="H750" s="10"/>
     </row>
-    <row r="751" spans="8:8" ht="14.4">
+    <row r="751" spans="8:8" ht="14.6">
       <c r="H751" s="10"/>
     </row>
-    <row r="752" spans="8:8" ht="14.4">
+    <row r="752" spans="8:8" ht="14.6">
       <c r="H752" s="10"/>
     </row>
-    <row r="753" spans="8:8" ht="14.4">
+    <row r="753" spans="8:8" ht="14.6">
       <c r="H753" s="10"/>
     </row>
-    <row r="754" spans="8:8" ht="14.4">
+    <row r="754" spans="8:8" ht="14.6">
       <c r="H754" s="10"/>
     </row>
-    <row r="755" spans="8:8" ht="14.4">
+    <row r="755" spans="8:8" ht="14.6">
       <c r="H755" s="10"/>
     </row>
-    <row r="756" spans="8:8" ht="14.4">
+    <row r="756" spans="8:8" ht="14.6">
       <c r="H756" s="10"/>
     </row>
-    <row r="757" spans="8:8" ht="14.4">
+    <row r="757" spans="8:8" ht="14.6">
       <c r="H757" s="10"/>
     </row>
-    <row r="758" spans="8:8" ht="14.4">
+    <row r="758" spans="8:8" ht="14.6">
       <c r="H758" s="10"/>
     </row>
-    <row r="759" spans="8:8" ht="14.4">
+    <row r="759" spans="8:8" ht="14.6">
       <c r="H759" s="10"/>
     </row>
-    <row r="760" spans="8:8" ht="14.4">
+    <row r="760" spans="8:8" ht="14.6">
       <c r="H760" s="10"/>
     </row>
-    <row r="761" spans="8:8" ht="14.4">
+    <row r="761" spans="8:8" ht="14.6">
       <c r="H761" s="10"/>
     </row>
-    <row r="762" spans="8:8" ht="14.4">
+    <row r="762" spans="8:8" ht="14.6">
       <c r="H762" s="10"/>
     </row>
-    <row r="763" spans="8:8" ht="14.4">
+    <row r="763" spans="8:8" ht="14.6">
       <c r="H763" s="10"/>
     </row>
-    <row r="764" spans="8:8" ht="14.4">
+    <row r="764" spans="8:8" ht="14.6">
       <c r="H764" s="10"/>
     </row>
-    <row r="765" spans="8:8" ht="14.4">
+    <row r="765" spans="8:8" ht="14.6">
       <c r="H765" s="10"/>
     </row>
-    <row r="766" spans="8:8" ht="14.4">
+    <row r="766" spans="8:8" ht="14.6">
       <c r="H766" s="10"/>
     </row>
-    <row r="767" spans="8:8" ht="14.4">
+    <row r="767" spans="8:8" ht="14.6">
       <c r="H767" s="10"/>
     </row>
-    <row r="768" spans="8:8" ht="14.4">
+    <row r="768" spans="8:8" ht="14.6">
       <c r="H768" s="10"/>
     </row>
-    <row r="769" spans="8:8" ht="14.4">
+    <row r="769" spans="8:8" ht="14.6">
       <c r="H769" s="10"/>
     </row>
-    <row r="770" spans="8:8" ht="14.4">
+    <row r="770" spans="8:8" ht="14.6">
       <c r="H770" s="10"/>
     </row>
-    <row r="771" spans="8:8" ht="14.4">
+    <row r="771" spans="8:8" ht="14.6">
       <c r="H771" s="10"/>
     </row>
-    <row r="772" spans="8:8" ht="14.4">
+    <row r="772" spans="8:8" ht="14.6">
       <c r="H772" s="10"/>
     </row>
-    <row r="773" spans="8:8" ht="14.4">
+    <row r="773" spans="8:8" ht="14.6">
       <c r="H773" s="10"/>
     </row>
-    <row r="774" spans="8:8" ht="14.4">
+    <row r="774" spans="8:8" ht="14.6">
       <c r="H774" s="10"/>
     </row>
-    <row r="775" spans="8:8" ht="14.4">
+    <row r="775" spans="8:8" ht="14.6">
       <c r="H775" s="10"/>
     </row>
-    <row r="776" spans="8:8" ht="14.4">
+    <row r="776" spans="8:8" ht="14.6">
       <c r="H776" s="10"/>
     </row>
-    <row r="777" spans="8:8" ht="14.4">
+    <row r="777" spans="8:8" ht="14.6">
       <c r="H777" s="10"/>
     </row>
-    <row r="778" spans="8:8" ht="14.4">
+    <row r="778" spans="8:8" ht="14.6">
       <c r="H778" s="10"/>
     </row>
-    <row r="779" spans="8:8" ht="14.4">
+    <row r="779" spans="8:8" ht="14.6">
       <c r="H779" s="10"/>
     </row>
-    <row r="780" spans="8:8" ht="14.4">
+    <row r="780" spans="8:8" ht="14.6">
       <c r="H780" s="10"/>
     </row>
-    <row r="781" spans="8:8" ht="14.4">
+    <row r="781" spans="8:8" ht="14.6">
       <c r="H781" s="10"/>
     </row>
-    <row r="782" spans="8:8" ht="14.4">
+    <row r="782" spans="8:8" ht="14.6">
       <c r="H782" s="10"/>
     </row>
-    <row r="783" spans="8:8" ht="14.4">
+    <row r="783" spans="8:8" ht="14.6">
       <c r="H783" s="10"/>
     </row>
-    <row r="784" spans="8:8" ht="14.4">
+    <row r="784" spans="8:8" ht="14.6">
       <c r="H784" s="10"/>
     </row>
-    <row r="785" spans="8:8" ht="14.4">
+    <row r="785" spans="8:8" ht="14.6">
       <c r="H785" s="10"/>
     </row>
-    <row r="786" spans="8:8" ht="14.4">
+    <row r="786" spans="8:8" ht="14.6">
       <c r="H786" s="10"/>
     </row>
-    <row r="787" spans="8:8" ht="14.4">
+    <row r="787" spans="8:8" ht="14.6">
       <c r="H787" s="10"/>
     </row>
-    <row r="788" spans="8:8" ht="14.4">
+    <row r="788" spans="8:8" ht="14.6">
       <c r="H788" s="10"/>
     </row>
-    <row r="789" spans="8:8" ht="14.4">
+    <row r="789" spans="8:8" ht="14.6">
       <c r="H789" s="10"/>
     </row>
-    <row r="790" spans="8:8" ht="14.4">
+    <row r="790" spans="8:8" ht="14.6">
       <c r="H790" s="10"/>
     </row>
-    <row r="791" spans="8:8" ht="14.4">
+    <row r="791" spans="8:8" ht="14.6">
       <c r="H791" s="10"/>
     </row>
-    <row r="792" spans="8:8" ht="14.4">
+    <row r="792" spans="8:8" ht="14.6">
       <c r="H792" s="10"/>
     </row>
-    <row r="793" spans="8:8" ht="14.4">
+    <row r="793" spans="8:8" ht="14.6">
       <c r="H793" s="10"/>
     </row>
-    <row r="794" spans="8:8" ht="14.4">
+    <row r="794" spans="8:8" ht="14.6">
       <c r="H794" s="10"/>
     </row>
-    <row r="795" spans="8:8" ht="14.4">
+    <row r="795" spans="8:8" ht="14.6">
       <c r="H795" s="10"/>
     </row>
-    <row r="796" spans="8:8" ht="14.4">
+    <row r="796" spans="8:8" ht="14.6">
       <c r="H796" s="10"/>
     </row>
-    <row r="797" spans="8:8" ht="14.4">
+    <row r="797" spans="8:8" ht="14.6">
       <c r="H797" s="10"/>
     </row>
-    <row r="798" spans="8:8" ht="14.4">
+    <row r="798" spans="8:8" ht="14.6">
       <c r="H798" s="10"/>
     </row>
-    <row r="799" spans="8:8" ht="14.4">
+    <row r="799" spans="8:8" ht="14.6">
       <c r="H799" s="10"/>
     </row>
-    <row r="800" spans="8:8" ht="14.4">
+    <row r="800" spans="8:8" ht="14.6">
       <c r="H800" s="10"/>
     </row>
-    <row r="801" spans="8:8" ht="14.4">
+    <row r="801" spans="8:8" ht="14.6">
       <c r="H801" s="10"/>
     </row>
-    <row r="802" spans="8:8" ht="14.4">
+    <row r="802" spans="8:8" ht="14.6">
       <c r="H802" s="10"/>
     </row>
-    <row r="803" spans="8:8" ht="14.4">
+    <row r="803" spans="8:8" ht="14.6">
       <c r="H803" s="10"/>
     </row>
-    <row r="804" spans="8:8" ht="14.4">
+    <row r="804" spans="8:8" ht="14.6">
       <c r="H804" s="10"/>
     </row>
-    <row r="805" spans="8:8" ht="14.4">
+    <row r="805" spans="8:8" ht="14.6">
       <c r="H805" s="10"/>
     </row>
-    <row r="806" spans="8:8" ht="14.4">
+    <row r="806" spans="8:8" ht="14.6">
       <c r="H806" s="10"/>
     </row>
-    <row r="807" spans="8:8" ht="14.4">
+    <row r="807" spans="8:8" ht="14.6">
       <c r="H807" s="10"/>
     </row>
-    <row r="808" spans="8:8" ht="14.4">
+    <row r="808" spans="8:8" ht="14.6">
       <c r="H808" s="10"/>
     </row>
-    <row r="809" spans="8:8" ht="14.4">
+    <row r="809" spans="8:8" ht="14.6">
       <c r="H809" s="10"/>
     </row>
-    <row r="810" spans="8:8" ht="14.4">
+    <row r="810" spans="8:8" ht="14.6">
       <c r="H810" s="10"/>
     </row>
-    <row r="811" spans="8:8" ht="14.4">
+    <row r="811" spans="8:8" ht="14.6">
       <c r="H811" s="10"/>
     </row>
-    <row r="812" spans="8:8" ht="14.4">
+    <row r="812" spans="8:8" ht="14.6">
       <c r="H812" s="10"/>
     </row>
-    <row r="813" spans="8:8" ht="14.4">
+    <row r="813" spans="8:8" ht="14.6">
       <c r="H813" s="10"/>
     </row>
-    <row r="814" spans="8:8" ht="14.4">
+    <row r="814" spans="8:8" ht="14.6">
       <c r="H814" s="10"/>
     </row>
-    <row r="815" spans="8:8" ht="14.4">
+    <row r="815" spans="8:8" ht="14.6">
       <c r="H815" s="10"/>
     </row>
-    <row r="816" spans="8:8" ht="14.4">
+    <row r="816" spans="8:8" ht="14.6">
       <c r="H816" s="10"/>
     </row>
-    <row r="817" spans="8:8" ht="14.4">
+    <row r="817" spans="8:8" ht="14.6">
       <c r="H817" s="10"/>
     </row>
-    <row r="818" spans="8:8" ht="14.4">
+    <row r="818" spans="8:8" ht="14.6">
       <c r="H818" s="10"/>
     </row>
-    <row r="819" spans="8:8" ht="14.4">
+    <row r="819" spans="8:8" ht="14.6">
       <c r="H819" s="10"/>
     </row>
-    <row r="820" spans="8:8" ht="14.4">
+    <row r="820" spans="8:8" ht="14.6">
       <c r="H820" s="10"/>
     </row>
-    <row r="821" spans="8:8" ht="14.4">
+    <row r="821" spans="8:8" ht="14.6">
       <c r="H821" s="10"/>
     </row>
-    <row r="822" spans="8:8" ht="14.4">
+    <row r="822" spans="8:8" ht="14.6">
       <c r="H822" s="10"/>
     </row>
-    <row r="823" spans="8:8" ht="14.4">
+    <row r="823" spans="8:8" ht="14.6">
       <c r="H823" s="10"/>
     </row>
-    <row r="824" spans="8:8" ht="14.4">
+    <row r="824" spans="8:8" ht="14.6">
       <c r="H824" s="10"/>
     </row>
-    <row r="825" spans="8:8" ht="14.4">
+    <row r="825" spans="8:8" ht="14.6">
       <c r="H825" s="10"/>
     </row>
-    <row r="826" spans="8:8" ht="14.4">
+    <row r="826" spans="8:8" ht="14.6">
       <c r="H826" s="10"/>
     </row>
-    <row r="827" spans="8:8" ht="14.4">
+    <row r="827" spans="8:8" ht="14.6">
       <c r="H827" s="10"/>
     </row>
-    <row r="828" spans="8:8" ht="14.4">
+    <row r="828" spans="8:8" ht="14.6">
       <c r="H828" s="10"/>
     </row>
-    <row r="829" spans="8:8" ht="14.4">
+    <row r="829" spans="8:8" ht="14.6">
       <c r="H829" s="10"/>
     </row>
-    <row r="830" spans="8:8" ht="14.4">
+    <row r="830" spans="8:8" ht="14.6">
       <c r="H830" s="10"/>
     </row>
-    <row r="831" spans="8:8" ht="14.4">
+    <row r="831" spans="8:8" ht="14.6">
       <c r="H831" s="10"/>
     </row>
-    <row r="832" spans="8:8" ht="14.4">
+    <row r="832" spans="8:8" ht="14.6">
       <c r="H832" s="10"/>
     </row>
-    <row r="833" spans="8:8" ht="14.4">
+    <row r="833" spans="8:8" ht="14.6">
       <c r="H833" s="10"/>
     </row>
-    <row r="834" spans="8:8" ht="14.4">
+    <row r="834" spans="8:8" ht="14.6">
       <c r="H834" s="10"/>
     </row>
-    <row r="835" spans="8:8" ht="14.4">
+    <row r="835" spans="8:8" ht="14.6">
       <c r="H835" s="10"/>
     </row>
-    <row r="836" spans="8:8" ht="14.4">
+    <row r="836" spans="8:8" ht="14.6">
       <c r="H836" s="10"/>
     </row>
-    <row r="837" spans="8:8" ht="14.4">
+    <row r="837" spans="8:8" ht="14.6">
       <c r="H837" s="10"/>
     </row>
-    <row r="838" spans="8:8" ht="14.4">
+    <row r="838" spans="8:8" ht="14.6">
       <c r="H838" s="10"/>
     </row>
-    <row r="839" spans="8:8" ht="14.4">
+    <row r="839" spans="8:8" ht="14.6">
       <c r="H839" s="10"/>
     </row>
-    <row r="840" spans="8:8" ht="14.4">
+    <row r="840" spans="8:8" ht="14.6">
       <c r="H840" s="10"/>
     </row>
-    <row r="841" spans="8:8" ht="14.4">
+    <row r="841" spans="8:8" ht="14.6">
       <c r="H841" s="10"/>
     </row>
-    <row r="842" spans="8:8" ht="14.4">
+    <row r="842" spans="8:8" ht="14.6">
       <c r="H842" s="10"/>
     </row>
-    <row r="843" spans="8:8" ht="14.4">
+    <row r="843" spans="8:8" ht="14.6">
       <c r="H843" s="10"/>
     </row>
-    <row r="844" spans="8:8" ht="14.4">
+    <row r="844" spans="8:8" ht="14.6">
       <c r="H844" s="10"/>
     </row>
-    <row r="845" spans="8:8" ht="14.4">
+    <row r="845" spans="8:8" ht="14.6">
       <c r="H845" s="10"/>
     </row>
-    <row r="846" spans="8:8" ht="14.4">
+    <row r="846" spans="8:8" ht="14.6">
       <c r="H846" s="10"/>
     </row>
-    <row r="847" spans="8:8" ht="14.4">
+    <row r="847" spans="8:8" ht="14.6">
       <c r="H847" s="10"/>
     </row>
-    <row r="848" spans="8:8" ht="14.4">
+    <row r="848" spans="8:8" ht="14.6">
       <c r="H848" s="10"/>
     </row>
-    <row r="849" spans="8:8" ht="14.4">
+    <row r="849" spans="8:8" ht="14.6">
       <c r="H849" s="10"/>
     </row>
-    <row r="850" spans="8:8" ht="14.4">
+    <row r="850" spans="8:8" ht="14.6">
       <c r="H850" s="10"/>
     </row>
-    <row r="851" spans="8:8" ht="14.4">
+    <row r="851" spans="8:8" ht="14.6">
       <c r="H851" s="10"/>
     </row>
-    <row r="852" spans="8:8" ht="14.4">
+    <row r="852" spans="8:8" ht="14.6">
       <c r="H852" s="10"/>
     </row>
-    <row r="853" spans="8:8" ht="14.4">
+    <row r="853" spans="8:8" ht="14.6">
       <c r="H853" s="10"/>
     </row>
-    <row r="854" spans="8:8" ht="14.4">
+    <row r="854" spans="8:8" ht="14.6">
       <c r="H854" s="10"/>
     </row>
-    <row r="855" spans="8:8" ht="14.4">
+    <row r="855" spans="8:8" ht="14.6">
       <c r="H855" s="10"/>
     </row>
-    <row r="856" spans="8:8" ht="14.4">
+    <row r="856" spans="8:8" ht="14.6">
       <c r="H856" s="10"/>
     </row>
-    <row r="857" spans="8:8" ht="14.4">
+    <row r="857" spans="8:8" ht="14.6">
       <c r="H857" s="10"/>
     </row>
-    <row r="858" spans="8:8" ht="14.4">
+    <row r="858" spans="8:8" ht="14.6">
       <c r="H858" s="10"/>
     </row>
-    <row r="859" spans="8:8" ht="14.4">
+    <row r="859" spans="8:8" ht="14.6">
       <c r="H859" s="10"/>
     </row>
-    <row r="860" spans="8:8" ht="14.4">
+    <row r="860" spans="8:8" ht="14.6">
       <c r="H860" s="10"/>
     </row>
-    <row r="861" spans="8:8" ht="14.4">
+    <row r="861" spans="8:8" ht="14.6">
       <c r="H861" s="10"/>
     </row>
-    <row r="862" spans="8:8" ht="14.4">
+    <row r="862" spans="8:8" ht="14.6">
       <c r="H862" s="10"/>
     </row>
-    <row r="863" spans="8:8" ht="14.4">
+    <row r="863" spans="8:8" ht="14.6">
       <c r="H863" s="10"/>
     </row>
-    <row r="864" spans="8:8" ht="14.4">
+    <row r="864" spans="8:8" ht="14.6">
       <c r="H864" s="10"/>
     </row>
-    <row r="865" spans="8:8" ht="14.4">
+    <row r="865" spans="8:8" ht="14.6">
       <c r="H865" s="10"/>
     </row>
-    <row r="866" spans="8:8" ht="14.4">
+    <row r="866" spans="8:8" ht="14.6">
       <c r="H866" s="10"/>
     </row>
-    <row r="867" spans="8:8" ht="14.4">
+    <row r="867" spans="8:8" ht="14.6">
       <c r="H867" s="10"/>
     </row>
-    <row r="868" spans="8:8" ht="14.4">
+    <row r="868" spans="8:8" ht="14.6">
       <c r="H868" s="10"/>
     </row>
-    <row r="869" spans="8:8" ht="14.4">
+    <row r="869" spans="8:8" ht="14.6">
       <c r="H869" s="10"/>
     </row>
-    <row r="870" spans="8:8" ht="14.4">
+    <row r="870" spans="8:8" ht="14.6">
       <c r="H870" s="10"/>
     </row>
-    <row r="871" spans="8:8" ht="14.4">
+    <row r="871" spans="8:8" ht="14.6">
       <c r="H871" s="10"/>
     </row>
-    <row r="872" spans="8:8" ht="14.4">
+    <row r="872" spans="8:8" ht="14.6">
       <c r="H872" s="10"/>
     </row>
-    <row r="873" spans="8:8" ht="14.4">
+    <row r="873" spans="8:8" ht="14.6">
       <c r="H873" s="10"/>
     </row>
-    <row r="874" spans="8:8" ht="14.4">
+    <row r="874" spans="8:8" ht="14.6">
       <c r="H874" s="10"/>
     </row>
-    <row r="875" spans="8:8" ht="14.4">
+    <row r="875" spans="8:8" ht="14.6">
       <c r="H875" s="10"/>
     </row>
-    <row r="876" spans="8:8" ht="14.4">
+    <row r="876" spans="8:8" ht="14.6">
       <c r="H876" s="10"/>
     </row>
-    <row r="877" spans="8:8" ht="14.4">
+    <row r="877" spans="8:8" ht="14.6">
       <c r="H877" s="10"/>
     </row>
-    <row r="878" spans="8:8" ht="14.4">
+    <row r="878" spans="8:8" ht="14.6">
       <c r="H878" s="10"/>
     </row>
-    <row r="879" spans="8:8" ht="14.4">
+    <row r="879" spans="8:8" ht="14.6">
       <c r="H879" s="10"/>
     </row>
-    <row r="880" spans="8:8" ht="14.4">
+    <row r="880" spans="8:8" ht="14.6">
       <c r="H880" s="10"/>
     </row>
-    <row r="881" spans="8:8" ht="14.4">
+    <row r="881" spans="8:8" ht="14.6">
       <c r="H881" s="10"/>
     </row>
-    <row r="882" spans="8:8" ht="14.4">
+    <row r="882" spans="8:8" ht="14.6">
       <c r="H882" s="10"/>
     </row>
-    <row r="883" spans="8:8" ht="14.4">
+    <row r="883" spans="8:8" ht="14.6">
       <c r="H883" s="10"/>
     </row>
-    <row r="884" spans="8:8" ht="14.4">
+    <row r="884" spans="8:8" ht="14.6">
       <c r="H884" s="10"/>
     </row>
-    <row r="885" spans="8:8" ht="14.4">
+    <row r="885" spans="8:8" ht="14.6">
       <c r="H885" s="10"/>
     </row>
-    <row r="886" spans="8:8" ht="14.4">
+    <row r="886" spans="8:8" ht="14.6">
       <c r="H886" s="10"/>
     </row>
-    <row r="887" spans="8:8" ht="14.4">
+    <row r="887" spans="8:8" ht="14.6">
       <c r="H887" s="10"/>
     </row>
-    <row r="888" spans="8:8" ht="14.4">
+    <row r="888" spans="8:8" ht="14.6">
       <c r="H888" s="10"/>
     </row>
-    <row r="889" spans="8:8" ht="14.4">
+    <row r="889" spans="8:8" ht="14.6">
       <c r="H889" s="10"/>
     </row>
-    <row r="890" spans="8:8" ht="14.4">
+    <row r="890" spans="8:8" ht="14.6">
       <c r="H890" s="10"/>
     </row>
-    <row r="891" spans="8:8" ht="14.4">
+    <row r="891" spans="8:8" ht="14.6">
       <c r="H891" s="10"/>
     </row>
-    <row r="892" spans="8:8" ht="14.4">
+    <row r="892" spans="8:8" ht="14.6">
       <c r="H892" s="10"/>
     </row>
-    <row r="893" spans="8:8" ht="14.4">
+    <row r="893" spans="8:8" ht="14.6">
       <c r="H893" s="10"/>
     </row>
-    <row r="894" spans="8:8" ht="14.4">
+    <row r="894" spans="8:8" ht="14.6">
       <c r="H894" s="10"/>
     </row>
-    <row r="895" spans="8:8" ht="14.4">
+    <row r="895" spans="8:8" ht="14.6">
       <c r="H895" s="10"/>
     </row>
-    <row r="896" spans="8:8" ht="14.4">
+    <row r="896" spans="8:8" ht="14.6">
       <c r="H896" s="10"/>
     </row>
-    <row r="897" spans="8:8" ht="14.4">
+    <row r="897" spans="8:8" ht="14.6">
       <c r="H897" s="10"/>
     </row>
-    <row r="898" spans="8:8" ht="14.4">
+    <row r="898" spans="8:8" ht="14.6">
       <c r="H898" s="10"/>
     </row>
-    <row r="899" spans="8:8" ht="14.4">
+    <row r="899" spans="8:8" ht="14.6">
       <c r="H899" s="10"/>
     </row>
-    <row r="900" spans="8:8" ht="14.4">
+    <row r="900" spans="8:8" ht="14.6">
       <c r="H900" s="10"/>
     </row>
-    <row r="901" spans="8:8" ht="14.4">
+    <row r="901" spans="8:8" ht="14.6">
       <c r="H901" s="10"/>
     </row>
-    <row r="902" spans="8:8" ht="14.4">
+    <row r="902" spans="8:8" ht="14.6">
       <c r="H902" s="10"/>
     </row>
-    <row r="903" spans="8:8" ht="14.4">
+    <row r="903" spans="8:8" ht="14.6">
       <c r="H903" s="10"/>
     </row>
-    <row r="904" spans="8:8" ht="14.4">
+    <row r="904" spans="8:8" ht="14.6">
       <c r="H904" s="10"/>
     </row>
-    <row r="905" spans="8:8" ht="14.4">
+    <row r="905" spans="8:8" ht="14.6">
       <c r="H905" s="10"/>
     </row>
-    <row r="906" spans="8:8" ht="14.4">
+    <row r="906" spans="8:8" ht="14.6">
       <c r="H906" s="10"/>
     </row>
-    <row r="907" spans="8:8" ht="14.4">
+    <row r="907" spans="8:8" ht="14.6">
       <c r="H907" s="10"/>
     </row>
-    <row r="908" spans="8:8" ht="14.4">
+    <row r="908" spans="8:8" ht="14.6">
       <c r="H908" s="10"/>
     </row>
-    <row r="909" spans="8:8" ht="14.4">
+    <row r="909" spans="8:8" ht="14.6">
       <c r="H909" s="10"/>
     </row>
-    <row r="910" spans="8:8" ht="14.4">
+    <row r="910" spans="8:8" ht="14.6">
       <c r="H910" s="10"/>
     </row>
-    <row r="911" spans="8:8" ht="14.4">
+    <row r="911" spans="8:8" ht="14.6">
       <c r="H911" s="10"/>
     </row>
-    <row r="912" spans="8:8" ht="14.4">
+    <row r="912" spans="8:8" ht="14.6">
       <c r="H912" s="10"/>
     </row>
-    <row r="913" spans="8:8" ht="14.4">
+    <row r="913" spans="8:8" ht="14.6">
       <c r="H913" s="10"/>
     </row>
-    <row r="914" spans="8:8" ht="14.4">
+    <row r="914" spans="8:8" ht="14.6">
       <c r="H914" s="10"/>
     </row>
-    <row r="915" spans="8:8" ht="14.4">
+    <row r="915" spans="8:8" ht="14.6">
       <c r="H915" s="10"/>
     </row>
-    <row r="916" spans="8:8" ht="14.4">
+    <row r="916" spans="8:8" ht="14.6">
       <c r="H916" s="10"/>
     </row>
-    <row r="917" spans="8:8" ht="14.4">
+    <row r="917" spans="8:8" ht="14.6">
       <c r="H917" s="10"/>
     </row>
-    <row r="918" spans="8:8" ht="14.4">
+    <row r="918" spans="8:8" ht="14.6">
       <c r="H918" s="10"/>
     </row>
-    <row r="919" spans="8:8" ht="14.4">
+    <row r="919" spans="8:8" ht="14.6">
       <c r="H919" s="10"/>
     </row>
-    <row r="920" spans="8:8" ht="14.4">
+    <row r="920" spans="8:8" ht="14.6">
       <c r="H920" s="10"/>
     </row>
-    <row r="921" spans="8:8" ht="14.4">
+    <row r="921" spans="8:8" ht="14.6">
       <c r="H921" s="10"/>
     </row>
-    <row r="922" spans="8:8" ht="14.4">
+    <row r="922" spans="8:8" ht="14.6">
       <c r="H922" s="10"/>
     </row>
-    <row r="923" spans="8:8" ht="14.4">
+    <row r="923" spans="8:8" ht="14.6">
       <c r="H923" s="10"/>
     </row>
-    <row r="924" spans="8:8" ht="14.4">
+    <row r="924" spans="8:8" ht="14.6">
       <c r="H924" s="10"/>
     </row>
-    <row r="925" spans="8:8" ht="14.4">
+    <row r="925" spans="8:8" ht="14.6">
       <c r="H925" s="10"/>
     </row>
-    <row r="926" spans="8:8" ht="14.4">
+    <row r="926" spans="8:8" ht="14.6">
       <c r="H926" s="10"/>
     </row>
-    <row r="927" spans="8:8" ht="14.4">
+    <row r="927" spans="8:8" ht="14.6">
       <c r="H927" s="10"/>
     </row>
-    <row r="928" spans="8:8" ht="14.4">
+    <row r="928" spans="8:8" ht="14.6">
       <c r="H928" s="10"/>
     </row>
-    <row r="929" spans="8:8" ht="14.4">
+    <row r="929" spans="8:8" ht="14.6">
       <c r="H929" s="10"/>
     </row>
-    <row r="930" spans="8:8" ht="14.4">
+    <row r="930" spans="8:8" ht="14.6">
       <c r="H930" s="10"/>
     </row>
-    <row r="931" spans="8:8" ht="14.4">
+    <row r="931" spans="8:8" ht="14.6">
       <c r="H931" s="10"/>
     </row>
-    <row r="932" spans="8:8" ht="14.4">
+    <row r="932" spans="8:8" ht="14.6">
       <c r="H932" s="10"/>
     </row>
-    <row r="933" spans="8:8" ht="14.4">
+    <row r="933" spans="8:8" ht="14.6">
       <c r="H933" s="10"/>
     </row>
-    <row r="934" spans="8:8" ht="14.4">
+    <row r="934" spans="8:8" ht="14.6">
       <c r="H934" s="10"/>
     </row>
-    <row r="935" spans="8:8" ht="14.4">
+    <row r="935" spans="8:8" ht="14.6">
       <c r="H935" s="10"/>
     </row>
-    <row r="936" spans="8:8" ht="14.4">
+    <row r="936" spans="8:8" ht="14.6">
       <c r="H936" s="10"/>
     </row>
-    <row r="937" spans="8:8" ht="14.4">
+    <row r="937" spans="8:8" ht="14.6">
       <c r="H937" s="10"/>
     </row>
-    <row r="938" spans="8:8" ht="14.4">
+    <row r="938" spans="8:8" ht="14.6">
       <c r="H938" s="10"/>
     </row>
-    <row r="939" spans="8:8" ht="14.4">
+    <row r="939" spans="8:8" ht="14.6">
       <c r="H939" s="10"/>
     </row>
-    <row r="940" spans="8:8" ht="14.4">
+    <row r="940" spans="8:8" ht="14.6">
       <c r="H940" s="10"/>
     </row>
-    <row r="941" spans="8:8" ht="14.4">
+    <row r="941" spans="8:8" ht="14.6">
       <c r="H941" s="10"/>
     </row>
-    <row r="942" spans="8:8" ht="14.4">
+    <row r="942" spans="8:8" ht="14.6">
       <c r="H942" s="10"/>
     </row>
-    <row r="943" spans="8:8" ht="14.4">
+    <row r="943" spans="8:8" ht="14.6">
       <c r="H943" s="10"/>
     </row>
-    <row r="944" spans="8:8" ht="14.4">
+    <row r="944" spans="8:8" ht="14.6">
       <c r="H944" s="10"/>
     </row>
-    <row r="945" spans="8:8" ht="14.4">
+    <row r="945" spans="8:8" ht="14.6">
       <c r="H945" s="10"/>
     </row>
-    <row r="946" spans="8:8" ht="14.4">
+    <row r="946" spans="8:8" ht="14.6">
       <c r="H946" s="10"/>
     </row>
-    <row r="947" spans="8:8" ht="14.4">
+    <row r="947" spans="8:8" ht="14.6">
       <c r="H947" s="10"/>
     </row>
-    <row r="948" spans="8:8" ht="14.4">
+    <row r="948" spans="8:8" ht="14.6">
       <c r="H948" s="10"/>
     </row>
-    <row r="949" spans="8:8" ht="14.4">
+    <row r="949" spans="8:8" ht="14.6">
       <c r="H949" s="10"/>
     </row>
-    <row r="950" spans="8:8" ht="14.4">
+    <row r="950" spans="8:8" ht="14.6">
       <c r="H950" s="10"/>
     </row>
-    <row r="951" spans="8:8" ht="14.4">
+    <row r="951" spans="8:8" ht="14.6">
       <c r="H951" s="10"/>
     </row>
-    <row r="952" spans="8:8" ht="14.4">
+    <row r="952" spans="8:8" ht="14.6">
       <c r="H952" s="10"/>
     </row>
-    <row r="953" spans="8:8" ht="14.4">
+    <row r="953" spans="8:8" ht="14.6">
       <c r="H953" s="10"/>
     </row>
-    <row r="954" spans="8:8" ht="14.4">
+    <row r="954" spans="8:8" ht="14.6">
       <c r="H954" s="10"/>
     </row>
-    <row r="955" spans="8:8" ht="14.4">
+    <row r="955" spans="8:8" ht="14.6">
       <c r="H955" s="10"/>
     </row>
-    <row r="956" spans="8:8" ht="14.4">
+    <row r="956" spans="8:8" ht="14.6">
       <c r="H956" s="10"/>
     </row>
-    <row r="957" spans="8:8" ht="14.4">
+    <row r="957" spans="8:8" ht="14.6">
       <c r="H957" s="10"/>
     </row>
-    <row r="958" spans="8:8" ht="14.4">
+    <row r="958" spans="8:8" ht="14.6">
       <c r="H958" s="10"/>
     </row>
-    <row r="959" spans="8:8" ht="14.4">
+    <row r="959" spans="8:8" ht="14.6">
       <c r="H959" s="10"/>
     </row>
-    <row r="960" spans="8:8" ht="14.4">
+    <row r="960" spans="8:8" ht="14.6">
       <c r="H960" s="10"/>
     </row>
-    <row r="961" spans="8:8" ht="14.4">
+    <row r="961" spans="8:8" ht="14.6">
       <c r="H961" s="10"/>
     </row>
-    <row r="962" spans="8:8" ht="14.4">
+    <row r="962" spans="8:8" ht="14.6">
       <c r="H962" s="10"/>
     </row>
-    <row r="963" spans="8:8" ht="14.4">
+    <row r="963" spans="8:8" ht="14.6">
       <c r="H963" s="10"/>
     </row>
-    <row r="964" spans="8:8" ht="14.4">
+    <row r="964" spans="8:8" ht="14.6">
       <c r="H964" s="10"/>
     </row>
-    <row r="965" spans="8:8" ht="14.4">
+    <row r="965" spans="8:8" ht="14.6">
       <c r="H965" s="10"/>
     </row>
-    <row r="966" spans="8:8" ht="14.4">
+    <row r="966" spans="8:8" ht="14.6">
       <c r="H966" s="10"/>
     </row>
-    <row r="967" spans="8:8" ht="14.4">
+    <row r="967" spans="8:8" ht="14.6">
       <c r="H967" s="10"/>
     </row>
-    <row r="968" spans="8:8" ht="14.4">
+    <row r="968" spans="8:8" ht="14.6">
       <c r="H968" s="10"/>
     </row>
-    <row r="969" spans="8:8" ht="14.4">
+    <row r="969" spans="8:8" ht="14.6">
       <c r="H969" s="10"/>
     </row>
-    <row r="970" spans="8:8" ht="14.4">
+    <row r="970" spans="8:8" ht="14.6">
       <c r="H970" s="10"/>
     </row>
-    <row r="971" spans="8:8" ht="14.4">
+    <row r="971" spans="8:8" ht="14.6">
       <c r="H971" s="10"/>
     </row>
-    <row r="972" spans="8:8" ht="14.4">
+    <row r="972" spans="8:8" ht="14.6">
       <c r="H972" s="10"/>
     </row>
-    <row r="973" spans="8:8" ht="14.4">
+    <row r="973" spans="8:8" ht="14.6">
       <c r="H973" s="10"/>
     </row>
-    <row r="974" spans="8:8" ht="14.4">
+    <row r="974" spans="8:8" ht="14.6">
       <c r="H974" s="10"/>
     </row>
-    <row r="975" spans="8:8" ht="14.4">
+    <row r="975" spans="8:8" ht="14.6">
       <c r="H975" s="10"/>
     </row>
-    <row r="976" spans="8:8" ht="14.4">
+    <row r="976" spans="8:8" ht="14.6">
       <c r="H976" s="10"/>
     </row>
-    <row r="977" spans="8:8" ht="14.4">
+    <row r="977" spans="8:8" ht="14.6">
       <c r="H977" s="10"/>
     </row>
-    <row r="978" spans="8:8" ht="14.4">
+    <row r="978" spans="8:8" ht="14.6">
       <c r="H978" s="10"/>
     </row>
-    <row r="979" spans="8:8" ht="14.4">
+    <row r="979" spans="8:8" ht="14.6">
       <c r="H979" s="10"/>
     </row>
-    <row r="980" spans="8:8" ht="14.4">
+    <row r="980" spans="8:8" ht="14.6">
       <c r="H980" s="10"/>
     </row>
-    <row r="981" spans="8:8" ht="14.4">
+    <row r="981" spans="8:8" ht="14.6">
       <c r="H981" s="10"/>
     </row>
-    <row r="982" spans="8:8" ht="14.4">
+    <row r="982" spans="8:8" ht="14.6">
       <c r="H982" s="10"/>
     </row>
-    <row r="983" spans="8:8" ht="14.4">
+    <row r="983" spans="8:8" ht="14.6">
       <c r="H983" s="10"/>
     </row>
-    <row r="984" spans="8:8" ht="14.4">
+    <row r="984" spans="8:8" ht="14.6">
       <c r="H984" s="10"/>
     </row>
-    <row r="985" spans="8:8" ht="14.4">
+    <row r="985" spans="8:8" ht="14.6">
       <c r="H985" s="10"/>
     </row>
-    <row r="986" spans="8:8" ht="14.4">
+    <row r="986" spans="8:8" ht="14.6">
       <c r="H986" s="10"/>
     </row>
-    <row r="987" spans="8:8" ht="14.4">
+    <row r="987" spans="8:8" ht="14.6">
       <c r="H987" s="10"/>
     </row>
-    <row r="988" spans="8:8" ht="14.4">
+    <row r="988" spans="8:8" ht="14.6">
       <c r="H988" s="10"/>
     </row>
-    <row r="989" spans="8:8" ht="14.4">
+    <row r="989" spans="8:8" ht="14.6">
       <c r="H989" s="10"/>
     </row>
-    <row r="990" spans="8:8" ht="14.4">
+    <row r="990" spans="8:8" ht="14.6">
       <c r="H990" s="10"/>
     </row>
-    <row r="991" spans="8:8" ht="14.4">
+    <row r="991" spans="8:8" ht="14.6">
       <c r="H991" s="10"/>
     </row>
-    <row r="992" spans="8:8" ht="14.4">
+    <row r="992" spans="8:8" ht="14.6">
       <c r="H992" s="10"/>
     </row>
-    <row r="993" spans="8:8" ht="14.4">
+    <row r="993" spans="8:8" ht="14.6">
       <c r="H993" s="10"/>
     </row>
-    <row r="994" spans="8:8" ht="14.4">
+    <row r="994" spans="8:8" ht="14.6">
       <c r="H994" s="10"/>
     </row>
-    <row r="995" spans="8:8" ht="14.4">
+    <row r="995" spans="8:8" ht="14.6">
       <c r="H995" s="10"/>
     </row>
-    <row r="996" spans="8:8" ht="14.4">
+    <row r="996" spans="8:8" ht="14.6">
       <c r="H996" s="10"/>
     </row>
-    <row r="997" spans="8:8" ht="14.4">
+    <row r="997" spans="8:8" ht="14.6">
       <c r="H997" s="10"/>
     </row>
-    <row r="998" spans="8:8" ht="14.4">
+    <row r="998" spans="8:8" ht="14.6">
       <c r="H998" s="10"/>
     </row>
-    <row r="999" spans="8:8" ht="14.4">
+    <row r="999" spans="8:8" ht="14.6">
       <c r="H999" s="10"/>
     </row>
-    <row r="1000" spans="8:8" ht="14.4">
+    <row r="1000" spans="8:8" ht="14.6">
       <c r="H1000" s="10"/>
     </row>
   </sheetData>
@@ -41781,16 +41784,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.53515625" customWidth="1"/>
+    <col min="2" max="2" width="24.3046875" customWidth="1"/>
+    <col min="3" max="3" width="26.53515625" customWidth="1"/>
+    <col min="4" max="4" width="23.84375" customWidth="1"/>
+    <col min="5" max="5" width="27.07421875" customWidth="1"/>
+    <col min="6" max="6" width="27.69140625" customWidth="1"/>
     <col min="7" max="7" width="61" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -41821,7 +41824,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>230</v>
       </c>
@@ -41847,7 +41850,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>237</v>
       </c>
@@ -41873,7 +41876,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>245</v>
       </c>
@@ -41899,7 +41902,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>251</v>
       </c>
@@ -41925,7 +41928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>258</v>
       </c>
@@ -41965,16 +41968,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.53515625" customWidth="1"/>
+    <col min="3" max="3" width="35.4609375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.3046875" customWidth="1"/>
+    <col min="6" max="6" width="32.84375" customWidth="1"/>
+    <col min="7" max="7" width="50.4609375" customWidth="1"/>
+    <col min="8" max="8" width="18.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -42005,7 +42008,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.6">
       <c r="A2" s="16" t="s">
         <v>265</v>
       </c>
@@ -42031,7 +42034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.6">
       <c r="A3" s="16" t="s">
         <v>272</v>
       </c>
@@ -42057,7 +42060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.6">
       <c r="A4" s="16" t="s">
         <v>279</v>
       </c>
@@ -42083,7 +42086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.6">
       <c r="A5" s="16" t="s">
         <v>285</v>
       </c>
@@ -42109,7 +42112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.6">
       <c r="A6" s="16" t="s">
         <v>291</v>
       </c>
